--- a/Rate Blog Sheet.xlsx
+++ b/Rate Blog Sheet.xlsx
@@ -397,174 +397,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Taylor Swift's Spectacular Tour Sparks Unprecedented Hotel Booking Surge in Buenos Aires</v>
+        <v>Title</v>
       </c>
       <c r="B1" t="str">
-        <v>NOVEMBER 23, 2023</v>
+        <v>Date</v>
       </c>
       <c r="C1" t="str">
-        <v>https://rategain.com/blog/swiftie-effect-in-buenos-aires/</v>
+        <v>Image URL</v>
       </c>
       <c r="D1" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v>No. of likes</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>A Complete Guide to Hotel Revenue Management</v>
+        <v>Taylor Swift's Spectacular Tour Sparks Unprecedented Hotel Booking Surge in Buenos Aires</v>
       </c>
       <c r="B2" t="str">
-        <v>NOVEMBER 22, 2023</v>
+        <v>NOVEMBER 23, 2023</v>
       </c>
       <c r="C2" t="str">
-        <v>https://rategain.com/blog/guide-to-hotel-revenue-management/</v>
+        <v>https://rategain.com/blog/swiftie-effect-in-buenos-aires/</v>
       </c>
       <c r="D2" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>The Ultimate Guide to Choosing the Right Hotel Booking Engine</v>
+        <v>A Complete Guide to Hotel Revenue Management</v>
       </c>
       <c r="B3" t="str">
         <v>NOVEMBER 22, 2023</v>
       </c>
       <c r="C3" t="str">
-        <v>https://rategain.com/blog/guide-to-choosing-the-right-hotel-booking-engine/</v>
+        <v>https://rategain.com/blog/guide-to-hotel-revenue-management/</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Maximize Your Hotel’s Exposure with Google AdSense’s New "Related Search" Feature in Auto Ads</v>
+        <v>The Ultimate Guide to Choosing the Right Hotel Booking Engine</v>
       </c>
       <c r="B4" t="str">
-        <v>OCTOBER 20, 2023</v>
+        <v>NOVEMBER 22, 2023</v>
       </c>
       <c r="C4" t="str">
-        <v>https://rategain.com/blog/new-related-search-feature-in-auto-ads/</v>
+        <v>https://rategain.com/blog/guide-to-choosing-the-right-hotel-booking-engine/</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> 32</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Beyond Reach &amp; Frequency: Hotels' New Era with Facebook's 'Reservation' Buying Type</v>
+        <v>Maximize Your Hotel’s Exposure with Google AdSense’s New "Related Search" Feature in Auto Ads</v>
       </c>
       <c r="B5" t="str">
-        <v>OCTOBER 12, 2023</v>
+        <v>OCTOBER 20, 2023</v>
       </c>
       <c r="C5" t="str">
-        <v>https://rategain.com/blog/facebook-reservation-buying-type/</v>
+        <v>https://rategain.com/blog/new-related-search-feature-in-auto-ads/</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> 17</v>
+        <v xml:space="preserve"> 32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Managing Overbookings and Cancellations with Hotel Booking Engines</v>
+        <v>Beyond Reach &amp; Frequency: Hotels' New Era with Facebook's 'Reservation' Buying Type</v>
       </c>
       <c r="B6" t="str">
-        <v>OCTOBER 5, 2023</v>
+        <v>OCTOBER 12, 2023</v>
       </c>
       <c r="C6" t="str">
-        <v>https://rategain.com/blog/managing-overbookings-and-cancellations-with-hotel-booking-engines/</v>
+        <v>https://rategain.com/blog/facebook-reservation-buying-type/</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> 12</v>
+        <v xml:space="preserve"> 17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Global Distribution System (GDS) vs. Channel Manager: Which is Right for Your Hotel</v>
+        <v>Managing Overbookings and Cancellations with Hotel Booking Engines</v>
       </c>
       <c r="B7" t="str">
-        <v>OCTOBER 1, 2023</v>
+        <v>OCTOBER 5, 2023</v>
       </c>
       <c r="C7" t="str">
-        <v>https://rategain.com/blog/gds-vs-channel-manager/</v>
+        <v>https://rategain.com/blog/managing-overbookings-and-cancellations-with-hotel-booking-engines/</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> 11</v>
+        <v xml:space="preserve"> 12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Jingle All the Way: Europe Christmas Travel Trends</v>
+        <v>Global Distribution System (GDS) vs. Channel Manager: Which is Right for Your Hotel</v>
       </c>
       <c r="B8" t="str">
-        <v>SEPTEMBER 28, 2023</v>
+        <v>OCTOBER 1, 2023</v>
       </c>
       <c r="C8" t="str">
-        <v>https://rategain.com/blog/europe-christmas-travel-trends/</v>
+        <v>https://rategain.com/blog/gds-vs-channel-manager/</v>
       </c>
       <c r="D8" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Why Bing Hotel Ads Should Be in Your Marketing Mix</v>
+        <v>Jingle All the Way: Europe Christmas Travel Trends</v>
       </c>
       <c r="B9" t="str">
         <v>SEPTEMBER 28, 2023</v>
       </c>
       <c r="C9" t="str">
-        <v>https://rategain.com/blog/bing-hotel-ads/</v>
+        <v>https://rategain.com/blog/europe-christmas-travel-trends/</v>
       </c>
       <c r="D9" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Unraveling the Alchemy: Year-End Travel Trends in Singapore</v>
+        <v>Why Bing Hotel Ads Should Be in Your Marketing Mix</v>
       </c>
       <c r="B10" t="str">
-        <v>SEPTEMBER 26, 2023</v>
+        <v>SEPTEMBER 28, 2023</v>
       </c>
       <c r="C10" t="str">
-        <v>https://rategain.com/blog/year-end-travel-trends-in-singapore/</v>
+        <v>https://rategain.com/blog/bing-hotel-ads/</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Year-End U.S. Domestic Travel Insights: A Revenue Manager's Guide to Success</v>
+        <v>Unraveling the Alchemy: Year-End Travel Trends in Singapore</v>
       </c>
       <c r="B11" t="str">
-        <v>SEPTEMBER 25, 2023</v>
+        <v>SEPTEMBER 26, 2023</v>
       </c>
       <c r="C11" t="str">
-        <v>https://rategain.com/blog/year-end-us-domestic-travel-insights/</v>
+        <v>https://rategain.com/blog/year-end-travel-trends-in-singapore/</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Unlocking Top Travel Destinations in Egypt: A Hotelier's Playbook</v>
+        <v>Year-End U.S. Domestic Travel Insights: A Revenue Manager's Guide to Success</v>
       </c>
       <c r="B12" t="str">
         <v>SEPTEMBER 25, 2023</v>
       </c>
       <c r="C12" t="str">
-        <v>https://rategain.com/blog/top-travel-destinations-in-egypt/</v>
+        <v>https://rategain.com/blog/year-end-us-domestic-travel-insights/</v>
       </c>
       <c r="D12" t="str">
         <v xml:space="preserve"> 7</v>
@@ -572,13 +572,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shaping Success in Egypt's Dynamic Hospitality Landscape: A Roadmap for Hoteliers</v>
+        <v>Unlocking Top Travel Destinations in Egypt: A Hotelier's Playbook</v>
       </c>
       <c r="B13" t="str">
-        <v>SEPTEMBER 22, 2023</v>
+        <v>SEPTEMBER 25, 2023</v>
       </c>
       <c r="C13" t="str">
-        <v>https://rategain.com/blog/egypt-hotel-strategies/</v>
+        <v>https://rategain.com/blog/top-travel-destinations-in-egypt/</v>
       </c>
       <c r="D13" t="str">
         <v xml:space="preserve"> 7</v>
@@ -586,27 +586,27 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Checking In to a Greener Future: Renewable Energy in Hotels</v>
+        <v>Shaping Success in Egypt's Dynamic Hospitality Landscape: A Roadmap for Hoteliers</v>
       </c>
       <c r="B14" t="str">
-        <v>SEPTEMBER 15, 2023</v>
+        <v>SEPTEMBER 22, 2023</v>
       </c>
       <c r="C14" t="str">
-        <v>https://rategain.com/blog/renewable-energy-in-hotels/</v>
+        <v>https://rategain.com/blog/egypt-hotel-strategies/</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sustaining Communities: The Role of Travel Sellers in Sustainable Tourism</v>
+        <v>Checking In to a Greener Future: Renewable Energy in Hotels</v>
       </c>
       <c r="B15" t="str">
-        <v>SEPTEMBER 14, 2023</v>
+        <v>SEPTEMBER 15, 2023</v>
       </c>
       <c r="C15" t="str">
-        <v>https://rategain.com/blog/role-of-travel-sellers-in-sustainable-tourism/</v>
+        <v>https://rategain.com/blog/renewable-energy-in-hotels/</v>
       </c>
       <c r="D15" t="str">
         <v xml:space="preserve"> 6</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Flowing Towards Sustainability: Water Conservation in Hotels</v>
+        <v>Sustaining Communities: The Role of Travel Sellers in Sustainable Tourism</v>
       </c>
       <c r="B16" t="str">
-        <v>SEPTEMBER 11, 2023</v>
+        <v>SEPTEMBER 14, 2023</v>
       </c>
       <c r="C16" t="str">
-        <v>https://rategain.com/blog/water-conservation-in-hotels/</v>
+        <v>https://rategain.com/blog/role-of-travel-sellers-in-sustainable-tourism/</v>
       </c>
       <c r="D16" t="str">
         <v xml:space="preserve"> 6</v>
@@ -628,139 +628,139 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Eco-Friendly Practices in Vacation Rentals: A Win-Win for Guests and the Environment</v>
+        <v>Flowing Towards Sustainability: Water Conservation in Hotels</v>
       </c>
       <c r="B17" t="str">
-        <v>SEPTEMBER 10, 2023</v>
+        <v>SEPTEMBER 11, 2023</v>
       </c>
       <c r="C17" t="str">
-        <v>https://rategain.com/blog/eco-friendly-practices-in-vacation-rentals/</v>
+        <v>https://rategain.com/blog/water-conservation-in-hotels/</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Zero-Waste Travel: A Sustainable Path to Explore the World</v>
+        <v>Eco-Friendly Practices in Vacation Rentals: A Win-Win for Guests and the Environment</v>
       </c>
       <c r="B18" t="str">
-        <v>SEPTEMBER 9, 2023</v>
+        <v>SEPTEMBER 10, 2023</v>
       </c>
       <c r="C18" t="str">
-        <v>https://rategain.com/blog/zero-waste-travel/</v>
+        <v>https://rategain.com/blog/eco-friendly-practices-in-vacation-rentals/</v>
       </c>
       <c r="D18" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Building a Greener Future: Sustainable Supply Chain Management in Hotels</v>
+        <v>Zero-Waste Travel: A Sustainable Path to Explore the World</v>
       </c>
       <c r="B19" t="str">
-        <v>SEPTEMBER 8, 2023</v>
+        <v>SEPTEMBER 9, 2023</v>
       </c>
       <c r="C19" t="str">
-        <v>https://rategain.com/blog/sustainable-supply-chain-management-in-hotels/</v>
+        <v>https://rategain.com/blog/zero-waste-travel/</v>
       </c>
       <c r="D19" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Airline Sustainability Initiatives: How Airlines are Going Green</v>
+        <v>Building a Greener Future: Sustainable Supply Chain Management in Hotels</v>
       </c>
       <c r="B20" t="str">
-        <v>SEPTEMBER 7, 2023</v>
+        <v>SEPTEMBER 8, 2023</v>
       </c>
       <c r="C20" t="str">
-        <v>https://rategain.com/blog/airline-sustainability-initiatives/</v>
+        <v>https://rategain.com/blog/sustainable-supply-chain-management-in-hotels/</v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Exploring Eco-Tourism: Where Nature Meets Responsible Travel</v>
+        <v>Airline Sustainability Initiatives: How Airlines are Going Green</v>
       </c>
       <c r="B21" t="str">
-        <v>SEPTEMBER 6, 2023</v>
+        <v>SEPTEMBER 7, 2023</v>
       </c>
       <c r="C21" t="str">
-        <v>https://rategain.com/blog/eco-tourism/</v>
+        <v>https://rategain.com/blog/airline-sustainability-initiatives/</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Measuring and Reporting Sustainability Impact: Metrics for Hotels and Travel Sellers</v>
+        <v>Exploring Eco-Tourism: Where Nature Meets Responsible Travel</v>
       </c>
       <c r="B22" t="str">
         <v>SEPTEMBER 6, 2023</v>
       </c>
       <c r="C22" t="str">
-        <v>https://rategain.com/blog/sustainability-impact-for-hotels-and-travel-sellers/</v>
+        <v>https://rategain.com/blog/eco-tourism/</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Reducing Carbon Footprint: Sustainable Practices for Tour Operators</v>
+        <v>Measuring and Reporting Sustainability Impact: Metrics for Hotels and Travel Sellers</v>
       </c>
       <c r="B23" t="str">
-        <v>SEPTEMBER 5, 2023</v>
+        <v>SEPTEMBER 6, 2023</v>
       </c>
       <c r="C23" t="str">
-        <v>https://rategain.com/blog/sustainable-practices-for-tour-operators/</v>
+        <v>https://rategain.com/blog/sustainability-impact-for-hotels-and-travel-sellers/</v>
       </c>
       <c r="D23" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Preserving Paradise: Biodiversity Conservation in Travel</v>
+        <v>Reducing Carbon Footprint: Sustainable Practices for Tour Operators</v>
       </c>
       <c r="B24" t="str">
-        <v>SEPTEMBER 4, 2023</v>
+        <v>SEPTEMBER 5, 2023</v>
       </c>
       <c r="C24" t="str">
-        <v>https://rategain.com/blog/biodiversity-conservation-in-travel/</v>
+        <v>https://rategain.com/blog/sustainable-practices-for-tour-operators/</v>
       </c>
       <c r="D24" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>How Green is your Hotel? Do Good and Show it to the World – on Google, for Example</v>
+        <v>Preserving Paradise: Biodiversity Conservation in Travel</v>
       </c>
       <c r="B25" t="str">
-        <v>SEPTEMBER 3, 2023</v>
+        <v>SEPTEMBER 4, 2023</v>
       </c>
       <c r="C25" t="str">
-        <v>https://rategain.com/blog/how-green-is-your-hotel/</v>
+        <v>https://rategain.com/blog/biodiversity-conservation-in-travel/</v>
       </c>
       <c r="D25" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>The Digital Evolution of UK Hospitality: A Historic Journey From Keys to Clicks</v>
+        <v>How Green is your Hotel? Do Good and Show it to the World – on Google, for Example</v>
       </c>
       <c r="B26" t="str">
-        <v>SEPTEMBER 1, 2023</v>
+        <v>SEPTEMBER 3, 2023</v>
       </c>
       <c r="C26" t="str">
-        <v>https://rategain.com/blog/evolution-of-uk-hospitality/</v>
+        <v>https://rategain.com/blog/how-green-is-your-hotel/</v>
       </c>
       <c r="D26" t="str">
         <v xml:space="preserve"> 7</v>
@@ -768,27 +768,27 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Driving Green: The Future of Sustainable Car Rentals</v>
+        <v>The Digital Evolution of UK Hospitality: A Historic Journey From Keys to Clicks</v>
       </c>
       <c r="B27" t="str">
         <v>SEPTEMBER 1, 2023</v>
       </c>
       <c r="C27" t="str">
-        <v>https://rategain.com/blog/future-of-sustainable-car-rentals/</v>
+        <v>https://rategain.com/blog/evolution-of-uk-hospitality/</v>
       </c>
       <c r="D27" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Taste the Future: Sustainable Food Practices in Hotels and Restaurants</v>
+        <v>Driving Green: The Future of Sustainable Car Rentals</v>
       </c>
       <c r="B28" t="str">
         <v>SEPTEMBER 1, 2023</v>
       </c>
       <c r="C28" t="str">
-        <v>https://rategain.com/blog/sustainable-food-practices-in-hotels-and-restaurants/</v>
+        <v>https://rategain.com/blog/future-of-sustainable-car-rentals/</v>
       </c>
       <c r="D28" t="str">
         <v xml:space="preserve"> 6</v>
@@ -796,55 +796,55 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>The Heart of Travel: DMOs and Their Impact on Local Economies</v>
+        <v>Taste the Future: Sustainable Food Practices in Hotels and Restaurants</v>
       </c>
       <c r="B29" t="str">
         <v>SEPTEMBER 1, 2023</v>
       </c>
       <c r="C29" t="str">
-        <v>https://rategain.com/blog/impact-of-dmo-on-local-economies/</v>
+        <v>https://rategain.com/blog/sustainable-food-practices-in-hotels-and-restaurants/</v>
       </c>
       <c r="D29" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Exploring India's Travel Resurgence: From G20 Summit to Cricket Hype Amidst a High-Demand Festive Season</v>
+        <v>The Heart of Travel: DMOs and Their Impact on Local Economies</v>
       </c>
       <c r="B30" t="str">
-        <v>AUGUST 31, 2023</v>
+        <v>SEPTEMBER 1, 2023</v>
       </c>
       <c r="C30" t="str">
-        <v>https://rategain.com/blog/the-world-is-coming-to-india-this-winters/</v>
+        <v>https://rategain.com/blog/impact-of-dmo-on-local-economies/</v>
       </c>
       <c r="D30" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Social Media Meets Google Business Profile: Here's Why You Should Care</v>
+        <v>Exploring India's Travel Resurgence: From G20 Summit to Cricket Hype Amidst a High-Demand Festive Season</v>
       </c>
       <c r="B31" t="str">
-        <v>AUGUST 21, 2023</v>
+        <v>AUGUST 31, 2023</v>
       </c>
       <c r="C31" t="str">
-        <v>https://rategain.com/blog/add-social-media-to-google-business-profile/</v>
+        <v>https://rategain.com/blog/the-world-is-coming-to-india-this-winters/</v>
       </c>
       <c r="D31" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Connect the Dots: Decoding Common Hotel System Connectivity Challenges</v>
+        <v>Social Media Meets Google Business Profile: Here's Why You Should Care</v>
       </c>
       <c r="B32" t="str">
-        <v>AUGUST 18, 2023</v>
+        <v>AUGUST 21, 2023</v>
       </c>
       <c r="C32" t="str">
-        <v>https://rategain.com/blog/hotel-system-connectivity-challenges/</v>
+        <v>https://rategain.com/blog/add-social-media-to-google-business-profile/</v>
       </c>
       <c r="D32" t="str">
         <v xml:space="preserve"> 5</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>GA4's New User Data Export to BigQuery: Your Key to Hyper-Personalized Hotel Marketing</v>
+        <v>Connect the Dots: Decoding Common Hotel System Connectivity Challenges</v>
       </c>
       <c r="B33" t="str">
-        <v>AUGUST 17, 2023</v>
+        <v>AUGUST 18, 2023</v>
       </c>
       <c r="C33" t="str">
-        <v>https://rategain.com/blog/ga4-user-data-export-to-big-query-for-hotels/</v>
+        <v>https://rategain.com/blog/hotel-system-connectivity-challenges/</v>
       </c>
       <c r="D33" t="str">
         <v xml:space="preserve"> 5</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>How AI and Machine Learning are Shaping Hotel Search Engines</v>
+        <v>GA4's New User Data Export to BigQuery: Your Key to Hyper-Personalized Hotel Marketing</v>
       </c>
       <c r="B34" t="str">
-        <v>AUGUST 16, 2023</v>
+        <v>AUGUST 17, 2023</v>
       </c>
       <c r="C34" t="str">
-        <v>https://rategain.com/blog/role-of-ai-ml-in-hotel-search-engines/</v>
+        <v>https://rategain.com/blog/ga4-user-data-export-to-big-query-for-hotels/</v>
       </c>
       <c r="D34" t="str">
         <v xml:space="preserve"> 5</v>
@@ -880,13 +880,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Unpacking Global DE&amp;I Pillars: A Strategy for Inclusivity</v>
+        <v>How AI and Machine Learning are Shaping Hotel Search Engines</v>
       </c>
       <c r="B35" t="str">
         <v>AUGUST 16, 2023</v>
       </c>
       <c r="C35" t="str">
-        <v>https://rategain.com/blog/global-dei-strategy/</v>
+        <v>https://rategain.com/blog/role-of-ai-ml-in-hotel-search-engines/</v>
       </c>
       <c r="D35" t="str">
         <v xml:space="preserve"> 5</v>
@@ -894,13 +894,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>The Evolution of Hotel Search Engines: Past, Present, and Future</v>
+        <v>Unpacking Global DE&amp;I Pillars: A Strategy for Inclusivity</v>
       </c>
       <c r="B36" t="str">
-        <v>AUGUST 15, 2023</v>
+        <v>AUGUST 16, 2023</v>
       </c>
       <c r="C36" t="str">
-        <v>https://rategain.com/blog/evolution-of-hotel-search-engines/</v>
+        <v>https://rategain.com/blog/global-dei-strategy/</v>
       </c>
       <c r="D36" t="str">
         <v xml:space="preserve"> 5</v>
@@ -908,41 +908,41 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>From Green Revolution to Space Exploration: 75 Innovations Propelling India Beyond 75</v>
+        <v>The Evolution of Hotel Search Engines: Past, Present, and Future</v>
       </c>
       <c r="B37" t="str">
-        <v>AUGUST 14, 2023</v>
+        <v>AUGUST 15, 2023</v>
       </c>
       <c r="C37" t="str">
-        <v>https://rategain.com/blog/top-innovations-of-independent-india/</v>
+        <v>https://rategain.com/blog/evolution-of-hotel-search-engines/</v>
       </c>
       <c r="D37" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Going Green: How Hotel Search Engines are Championing the Cause of Sustainable Travel</v>
+        <v>From Green Revolution to Space Exploration: 75 Innovations Propelling India Beyond 75</v>
       </c>
       <c r="B38" t="str">
-        <v>AUGUST 10, 2023</v>
+        <v>AUGUST 14, 2023</v>
       </c>
       <c r="C38" t="str">
-        <v>https://rategain.com/blog/hotel-search-engines-promoting-sustainability/</v>
+        <v>https://rategain.com/blog/top-innovations-of-independent-india/</v>
       </c>
       <c r="D38" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Get Noticed: The Smart Hotelier's Guide to Google's Filtered Search Carousel</v>
+        <v>Going Green: How Hotel Search Engines are Championing the Cause of Sustainable Travel</v>
       </c>
       <c r="B39" t="str">
-        <v>AUGUST 9, 2023</v>
+        <v>AUGUST 10, 2023</v>
       </c>
       <c r="C39" t="str">
-        <v>https://rategain.com/blog/google-hotel-filtered-search-carousel/</v>
+        <v>https://rategain.com/blog/hotel-search-engines-promoting-sustainability/</v>
       </c>
       <c r="D39" t="str">
         <v xml:space="preserve"> 3</v>
@@ -950,41 +950,41 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Understanding the Mechanics of Hotel Search Engines</v>
+        <v>Get Noticed: The Smart Hotelier's Guide to Google's Filtered Search Carousel</v>
       </c>
       <c r="B40" t="str">
         <v>AUGUST 9, 2023</v>
       </c>
       <c r="C40" t="str">
-        <v>https://rategain.com/blog/hotel-search-engines/</v>
+        <v>https://rategain.com/blog/google-hotel-filtered-search-carousel/</v>
       </c>
       <c r="D40" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Hospitality in the Digital Age: Software Breakthroughs and What's Next</v>
+        <v>Understanding the Mechanics of Hotel Search Engines</v>
       </c>
       <c r="B41" t="str">
-        <v>AUGUST 8, 2023</v>
+        <v>AUGUST 9, 2023</v>
       </c>
       <c r="C41" t="str">
-        <v>https://rategain.com/blog/hospitality-softwares/</v>
+        <v>https://rategain.com/blog/hotel-search-engines/</v>
       </c>
       <c r="D41" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Gaining a Competitive Edge at Every Stage of the Traveler Journey</v>
+        <v>Hospitality in the Digital Age: Software Breakthroughs and What's Next</v>
       </c>
       <c r="B42" t="str">
-        <v>AUGUST 4, 2023</v>
+        <v>AUGUST 8, 2023</v>
       </c>
       <c r="C42" t="str">
-        <v>https://rategain.com/blog/gaining-a-competitive-edge-at-every-stage-of-the-traveler-journey/</v>
+        <v>https://rategain.com/blog/hospitality-softwares/</v>
       </c>
       <c r="D42" t="str">
         <v xml:space="preserve"> 5</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Elevate Your Hotel's Performance with Revenue Management Analytics</v>
+        <v>Gaining a Competitive Edge at Every Stage of the Traveler Journey</v>
       </c>
       <c r="B43" t="str">
         <v>AUGUST 4, 2023</v>
       </c>
       <c r="C43" t="str">
-        <v>https://rategain.com/blog/hotel-revenue-management-analytics/</v>
+        <v>https://rategain.com/blog/gaining-a-competitive-edge-at-every-stage-of-the-traveler-journey/</v>
       </c>
       <c r="D43" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1006,41 +1006,41 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>How Hotels Can Stay Ahead in the Dynamic Hospitality Industry</v>
+        <v>Elevate Your Hotel's Performance with Revenue Management Analytics</v>
       </c>
       <c r="B44" t="str">
         <v>AUGUST 4, 2023</v>
       </c>
       <c r="C44" t="str">
-        <v>https://rategain.com/blog/stay-competitive-in-hospitality-industry/</v>
+        <v>https://rategain.com/blog/hotel-revenue-management-analytics/</v>
       </c>
       <c r="D44" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>What is Hospitality Management? Why is it Important?</v>
+        <v>How Hotels Can Stay Ahead in the Dynamic Hospitality Industry</v>
       </c>
       <c r="B45" t="str">
-        <v>AUGUST 1, 2023</v>
+        <v>AUGUST 4, 2023</v>
       </c>
       <c r="C45" t="str">
-        <v>https://rategain.com/blog/hospitality-management/</v>
+        <v>https://rategain.com/blog/stay-competitive-in-hospitality-industry/</v>
       </c>
       <c r="D45" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Has 'The Swiftie Fever' Opened New Travel Avenues In the U.S.</v>
+        <v>What is Hospitality Management? Why is it Important?</v>
       </c>
       <c r="B46" t="str">
         <v>AUGUST 1, 2023</v>
       </c>
       <c r="C46" t="str">
-        <v>https://rategain.com/blog/pop-icons-driving-travel-demand/</v>
+        <v>https://rategain.com/blog/hospitality-management/</v>
       </c>
       <c r="D46" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1048,27 +1048,27 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>How to Make Technology Partnerships Successful for Hotels</v>
+        <v>Has 'The Swiftie Fever' Opened New Travel Avenues In the U.S.</v>
       </c>
       <c r="B47" t="str">
-        <v>JULY 21, 2023</v>
+        <v>AUGUST 1, 2023</v>
       </c>
       <c r="C47" t="str">
-        <v>https://rategain.com/blog/technology-partnerships-for-hotels/</v>
+        <v>https://rategain.com/blog/pop-icons-driving-travel-demand/</v>
       </c>
       <c r="D47" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>AI and Machine Learning – Who Will Lead the Change and What Will it Look Like?</v>
+        <v>How to Make Technology Partnerships Successful for Hotels</v>
       </c>
       <c r="B48" t="str">
-        <v>JULY 20, 2023</v>
+        <v>JULY 21, 2023</v>
       </c>
       <c r="C48" t="str">
-        <v>https://rategain.com/blog/ai-and-ml-in-travel-industry/</v>
+        <v>https://rategain.com/blog/technology-partnerships-for-hotels/</v>
       </c>
       <c r="D48" t="str">
         <v xml:space="preserve"> 7</v>
@@ -1076,27 +1076,27 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Large Hotel Chains Can Move Fast Too: 10 Ideas To Implement Today</v>
+        <v>AI and Machine Learning – Who Will Lead the Change and What Will it Look Like?</v>
       </c>
       <c r="B49" t="str">
-        <v>JULY 18, 2023</v>
+        <v>JULY 20, 2023</v>
       </c>
       <c r="C49" t="str">
-        <v>https://rategain.com/blog/ideas-for-large-hotel-chains-for-success/</v>
+        <v>https://rategain.com/blog/ai-and-ml-in-travel-industry/</v>
       </c>
       <c r="D49" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>The Basics of Distribution for Hotel Chains</v>
+        <v>Large Hotel Chains Can Move Fast Too: 10 Ideas To Implement Today</v>
       </c>
       <c r="B50" t="str">
         <v>JULY 18, 2023</v>
       </c>
       <c r="C50" t="str">
-        <v>https://rategain.com/blog/basics-of-distribution-for-hotel-chains/</v>
+        <v>https://rategain.com/blog/ideas-for-large-hotel-chains-for-success/</v>
       </c>
       <c r="D50" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Supercharging Hotel Bookings: The Game-Changing Benefits of Metasearch Marketing</v>
+        <v>The Basics of Distribution for Hotel Chains</v>
       </c>
       <c r="B51" t="str">
         <v>JULY 18, 2023</v>
       </c>
       <c r="C51" t="str">
-        <v>https://rategain.com/blog/benefits-of-metasearch-marketing/</v>
+        <v>https://rategain.com/blog/basics-of-distribution-for-hotel-chains/</v>
       </c>
       <c r="D51" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>The Tech-Stack Needed by OTAs to Scale Your BI Capabilities</v>
+        <v>Supercharging Hotel Bookings: The Game-Changing Benefits of Metasearch Marketing</v>
       </c>
       <c r="B52" t="str">
-        <v>JULY 17, 2023</v>
+        <v>JULY 18, 2023</v>
       </c>
       <c r="C52" t="str">
-        <v>https://rategain.com/blog/tech-stack-needed-by-otas/</v>
+        <v>https://rategain.com/blog/benefits-of-metasearch-marketing/</v>
       </c>
       <c r="D52" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1132,41 +1132,41 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>The Future of Rate Parity in the Hospitality Industry</v>
+        <v>The Tech-Stack Needed by OTAs to Scale Your BI Capabilities</v>
       </c>
       <c r="B53" t="str">
         <v>JULY 17, 2023</v>
       </c>
       <c r="C53" t="str">
-        <v>https://rategain.com/blog/future-of-rate-parity-in-the-hospitality-industry/</v>
+        <v>https://rategain.com/blog/tech-stack-needed-by-otas/</v>
       </c>
       <c r="D53" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>How Hotel Pricing is Going to Change in the Age of AI</v>
+        <v>The Future of Rate Parity in the Hospitality Industry</v>
       </c>
       <c r="B54" t="str">
-        <v>JULY 12, 2023</v>
+        <v>JULY 17, 2023</v>
       </c>
       <c r="C54" t="str">
-        <v>https://rategain.com/blog/hotel-pricing-ai/</v>
+        <v>https://rategain.com/blog/future-of-rate-parity-in-the-hospitality-industry/</v>
       </c>
       <c r="D54" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Leveraging Instagram Threads for the Travel and Hospitality Industry</v>
+        <v>How Hotel Pricing is Going to Change in the Age of AI</v>
       </c>
       <c r="B55" t="str">
-        <v>JULY 10, 2023</v>
+        <v>JULY 12, 2023</v>
       </c>
       <c r="C55" t="str">
-        <v>https://rategain.com/blog/instagram-threads-for-travel-and-hospitality-and-travel-industry/</v>
+        <v>https://rategain.com/blog/hotel-pricing-ai/</v>
       </c>
       <c r="D55" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1174,69 +1174,69 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Calling All Hoteliers: Unleash the Power of GA4 for Optimal Performance</v>
+        <v>Leveraging Instagram Threads for the Travel and Hospitality Industry</v>
       </c>
       <c r="B56" t="str">
-        <v>JULY 7, 2023</v>
+        <v>JULY 10, 2023</v>
       </c>
       <c r="C56" t="str">
-        <v>https://rategain.com/blog/ga4-for-hoteliers/</v>
+        <v>https://rategain.com/blog/instagram-threads-for-travel-and-hospitality-and-travel-industry/</v>
       </c>
       <c r="D56" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Green Gold: Sustainable Hotels Shaping Profitable and Responsible Hospitality</v>
+        <v>Calling All Hoteliers: Unleash the Power of GA4 for Optimal Performance</v>
       </c>
       <c r="B57" t="str">
-        <v>JULY 3, 2023</v>
+        <v>JULY 7, 2023</v>
       </c>
       <c r="C57" t="str">
-        <v>https://rategain.com/blog/sustainable-hotels/</v>
+        <v>https://rategain.com/blog/ga4-for-hoteliers/</v>
       </c>
       <c r="D57" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Managing Hotel Cancellations: Strategies to Optimize Revenue and Guest Satisfaction</v>
+        <v>Green Gold: Sustainable Hotels Shaping Profitable and Responsible Hospitality</v>
       </c>
       <c r="B58" t="str">
-        <v>JUNE 28, 2023</v>
+        <v>JULY 3, 2023</v>
       </c>
       <c r="C58" t="str">
-        <v>https://rategain.com/blog/managing-hotel-cancellations/</v>
+        <v>https://rategain.com/blog/sustainable-hotels/</v>
       </c>
       <c r="D58" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Big Data: The Game Changer in Hospitality Industry</v>
+        <v>Managing Hotel Cancellations: Strategies to Optimize Revenue and Guest Satisfaction</v>
       </c>
       <c r="B59" t="str">
-        <v>JUNE 27, 2023</v>
+        <v>JUNE 28, 2023</v>
       </c>
       <c r="C59" t="str">
-        <v>https://rategain.com/blog/big-data-in-hospitality-industry/</v>
+        <v>https://rategain.com/blog/managing-hotel-cancellations/</v>
       </c>
       <c r="D59" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Unveiling the Hotel Challenges: Navigating Obstacles in the Dynamic Hospitality Landscape</v>
+        <v>Big Data: The Game Changer in Hospitality Industry</v>
       </c>
       <c r="B60" t="str">
-        <v>JUNE 26, 2023</v>
+        <v>JUNE 27, 2023</v>
       </c>
       <c r="C60" t="str">
-        <v>https://rategain.com/blog/hotel-challenges/</v>
+        <v>https://rategain.com/blog/big-data-in-hospitality-industry/</v>
       </c>
       <c r="D60" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Distribution Challenges for Hotels in Latin America</v>
+        <v>Unveiling the Hotel Challenges: Navigating Obstacles in the Dynamic Hospitality Landscape</v>
       </c>
       <c r="B61" t="str">
-        <v>JUNE 23, 2023</v>
+        <v>JUNE 26, 2023</v>
       </c>
       <c r="C61" t="str">
-        <v>https://rategain.com/blog/distribution-challenges-for-hotels-in-latin-america/</v>
+        <v>https://rategain.com/blog/hotel-challenges/</v>
       </c>
       <c r="D61" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1258,41 +1258,41 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Navigating Hotel Distribution Challenges with Technology and Strategy</v>
+        <v>Distribution Challenges for Hotels in Latin America</v>
       </c>
       <c r="B62" t="str">
-        <v>JUNE 22, 2023</v>
+        <v>JUNE 23, 2023</v>
       </c>
       <c r="C62" t="str">
-        <v>https://rategain.com/blog/solving-hotel-distribution-challenges-with-technology-and-strategy/</v>
+        <v>https://rategain.com/blog/distribution-challenges-for-hotels-in-latin-america/</v>
       </c>
       <c r="D62" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>What Does Digital Foundation in Hospitality Look Like</v>
+        <v>Navigating Hotel Distribution Challenges with Technology and Strategy</v>
       </c>
       <c r="B63" t="str">
-        <v>JUNE 20, 2023</v>
+        <v>JUNE 22, 2023</v>
       </c>
       <c r="C63" t="str">
-        <v>https://rategain.com/blog/digital-foundation-in-hospitality/</v>
+        <v>https://rategain.com/blog/solving-hotel-distribution-challenges-with-technology-and-strategy/</v>
       </c>
       <c r="D63" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Effective Hotel Pricing Strategies To Maximize Revenue During Low Demand Periods</v>
+        <v>What Does Digital Foundation in Hospitality Look Like</v>
       </c>
       <c r="B64" t="str">
-        <v>JUNE 13, 2023</v>
+        <v>JUNE 20, 2023</v>
       </c>
       <c r="C64" t="str">
-        <v>https://rategain.com/blog/effective-hotel-pricing-strategies-during-low-demand-periods/</v>
+        <v>https://rategain.com/blog/digital-foundation-in-hospitality/</v>
       </c>
       <c r="D64" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>The Power of Allyship: Building Bridges of Support and Inclusion</v>
+        <v>Effective Hotel Pricing Strategies To Maximize Revenue During Low Demand Periods</v>
       </c>
       <c r="B65" t="str">
-        <v>JUNE 12, 2023</v>
+        <v>JUNE 13, 2023</v>
       </c>
       <c r="C65" t="str">
-        <v>https://rategain.com/blog/the-power-of-allyship/</v>
+        <v>https://rategain.com/blog/effective-hotel-pricing-strategies-during-low-demand-periods/</v>
       </c>
       <c r="D65" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1314,41 +1314,41 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mastering Success: Hotel Revenue Management Strategies for Optimal Growth</v>
+        <v>The Power of Allyship: Building Bridges of Support and Inclusion</v>
       </c>
       <c r="B66" t="str">
-        <v>JUNE 11, 2023</v>
+        <v>JUNE 12, 2023</v>
       </c>
       <c r="C66" t="str">
-        <v>https://rategain.com/blog/effective-hotel-revenue-management-strategies/</v>
+        <v>https://rategain.com/blog/the-power-of-allyship/</v>
       </c>
       <c r="D66" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Solving the Challenge of Overbooking in Hotels: Strategies for Seamless Guest Experience</v>
+        <v>Mastering Success: Hotel Revenue Management Strategies for Optimal Growth</v>
       </c>
       <c r="B67" t="str">
-        <v>JUNE 10, 2023</v>
+        <v>JUNE 11, 2023</v>
       </c>
       <c r="C67" t="str">
-        <v>https://rategain.com/blog/solving-the-challenge-of-overbooking-in-hotels/</v>
+        <v>https://rategain.com/blog/effective-hotel-revenue-management-strategies/</v>
       </c>
       <c r="D67" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Navigating the Highs and Lows: Managing Hotel Demand During Special Events</v>
+        <v>Solving the Challenge of Overbooking in Hotels: Strategies for Seamless Guest Experience</v>
       </c>
       <c r="B68" t="str">
-        <v>JUNE 9, 2023</v>
+        <v>JUNE 10, 2023</v>
       </c>
       <c r="C68" t="str">
-        <v>https://rategain.com/blog/managing-hotel-demand-during-special-events/</v>
+        <v>https://rategain.com/blog/solving-the-challenge-of-overbooking-in-hotels/</v>
       </c>
       <c r="D68" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>The Impact of Weather on Hotel Demand: Leveraging Insights for Success</v>
+        <v>Navigating the Highs and Lows: Managing Hotel Demand During Special Events</v>
       </c>
       <c r="B69" t="str">
         <v>JUNE 9, 2023</v>
       </c>
       <c r="C69" t="str">
-        <v>https://rategain.com/blog/the-impact-of-weather-on-hotel-demand/</v>
+        <v>https://rategain.com/blog/managing-hotel-demand-during-special-events/</v>
       </c>
       <c r="D69" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Inside Google Marketing Live 2023: AI-Powered Innovations &amp; What They Mean for the Hotel Industry</v>
+        <v>The Impact of Weather on Hotel Demand: Leveraging Insights for Success</v>
       </c>
       <c r="B70" t="str">
-        <v>JUNE 8, 2023</v>
+        <v>JUNE 9, 2023</v>
       </c>
       <c r="C70" t="str">
-        <v>https://rategain.com/blog/google-marketing-live-ai-powered-innovations-for-the-hotel-industry/</v>
+        <v>https://rategain.com/blog/the-impact-of-weather-on-hotel-demand/</v>
       </c>
       <c r="D70" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Hotel Loyalty Programs: Building Customer Loyalty and Maximizing Rewards</v>
+        <v>Inside Google Marketing Live 2023: AI-Powered Innovations &amp; What They Mean for the Hotel Industry</v>
       </c>
       <c r="B71" t="str">
         <v>JUNE 8, 2023</v>
       </c>
       <c r="C71" t="str">
-        <v>https://rategain.com/blog/hotel-loyalty-programs/</v>
+        <v>https://rategain.com/blog/google-marketing-live-ai-powered-innovations-for-the-hotel-industry/</v>
       </c>
       <c r="D71" t="str">
         <v xml:space="preserve"> 6</v>
@@ -1398,27 +1398,27 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>The Impact of Seasonality on Hotel Revenue: Understanding the Highs and Lows</v>
+        <v>Hotel Loyalty Programs: Building Customer Loyalty and Maximizing Rewards</v>
       </c>
       <c r="B72" t="str">
         <v>JUNE 8, 2023</v>
       </c>
       <c r="C72" t="str">
-        <v>https://rategain.com/blog/the-impact-of-seasonality-on-hotel-revenue/</v>
+        <v>https://rategain.com/blog/hotel-loyalty-programs/</v>
       </c>
       <c r="D72" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Walking the Tight Rope: High Hotel ADR and Low Distribution Cost</v>
+        <v>The Impact of Seasonality on Hotel Revenue: Understanding the Highs and Lows</v>
       </c>
       <c r="B73" t="str">
-        <v>JUNE 7, 2023</v>
+        <v>JUNE 8, 2023</v>
       </c>
       <c r="C73" t="str">
-        <v>https://rategain.com/blog/walking-the-tight-rope-high-adr-and-low-distribution-cost/</v>
+        <v>https://rategain.com/blog/the-impact-of-seasonality-on-hotel-revenue/</v>
       </c>
       <c r="D73" t="str">
         <v xml:space="preserve"> 7</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>The Role of Central Reservation Systems in Efficient Hotel Inventory Distribution</v>
+        <v>Walking the Tight Rope: High Hotel ADR and Low Distribution Cost</v>
       </c>
       <c r="B74" t="str">
         <v>JUNE 7, 2023</v>
       </c>
       <c r="C74" t="str">
-        <v>https://rategain.com/blog/managing-hotel-inventory-distribution-through-crs/</v>
+        <v>https://rategain.com/blog/walking-the-tight-rope-high-adr-and-low-distribution-cost/</v>
       </c>
       <c r="D74" t="str">
         <v xml:space="preserve"> 7</v>
@@ -1440,27 +1440,27 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>The History of Pride Month: Celebrating Love and Equality</v>
+        <v>The Role of Central Reservation Systems in Efficient Hotel Inventory Distribution</v>
       </c>
       <c r="B75" t="str">
-        <v>JUNE 5, 2023</v>
+        <v>JUNE 7, 2023</v>
       </c>
       <c r="C75" t="str">
-        <v>https://rategain.com/blog/the-history-of-pride-month/</v>
+        <v>https://rategain.com/blog/managing-hotel-inventory-distribution-through-crs/</v>
       </c>
       <c r="D75" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>A Comprehensive Guide to Cloud Computing for Hotels: Transforming the Hospitality Industry</v>
+        <v>The History of Pride Month: Celebrating Love and Equality</v>
       </c>
       <c r="B76" t="str">
         <v>JUNE 5, 2023</v>
       </c>
       <c r="C76" t="str">
-        <v>https://rategain.com/blog/cloud-computing-for-hotels/</v>
+        <v>https://rategain.com/blog/the-history-of-pride-month/</v>
       </c>
       <c r="D76" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1468,55 +1468,55 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Unlock the Power of a Hotel Central Reservation System</v>
+        <v>A Comprehensive Guide to Cloud Computing for Hotels: Transforming the Hospitality Industry</v>
       </c>
       <c r="B77" t="str">
-        <v>JUNE 1, 2023</v>
+        <v>JUNE 5, 2023</v>
       </c>
       <c r="C77" t="str">
-        <v>https://rategain.com/blog/hotel-central-reservation-system/</v>
+        <v>https://rategain.com/blog/cloud-computing-for-hotels/</v>
       </c>
       <c r="D77" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Data and Analytics Can Help You Distribute Your Hotel Inventory Effectively &amp; Run Hotel Profitably</v>
+        <v>Unlock the Power of a Hotel Central Reservation System</v>
       </c>
       <c r="B78" t="str">
-        <v>MAY 26, 2023</v>
+        <v>JUNE 1, 2023</v>
       </c>
       <c r="C78" t="str">
-        <v>https://rategain.com/blog/data-analytics-distribute-hotel-inventory-profitably/</v>
+        <v>https://rategain.com/blog/hotel-central-reservation-system/</v>
       </c>
       <c r="D78" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Data-Driven Excellence: Maximizing Performance with Hotel Data Analytics</v>
+        <v>Data and Analytics Can Help You Distribute Your Hotel Inventory Effectively &amp; Run Hotel Profitably</v>
       </c>
       <c r="B79" t="str">
         <v>MAY 26, 2023</v>
       </c>
       <c r="C79" t="str">
-        <v>https://rategain.com/blog/hotel-data-analytics/</v>
+        <v>https://rategain.com/blog/data-analytics-distribute-hotel-inventory-profitably/</v>
       </c>
       <c r="D79" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Driving Higher Hotel Occupancy Rates: Implementing Effective Strategies</v>
+        <v>Data-Driven Excellence: Maximizing Performance with Hotel Data Analytics</v>
       </c>
       <c r="B80" t="str">
-        <v>MAY 25, 2023</v>
+        <v>MAY 26, 2023</v>
       </c>
       <c r="C80" t="str">
-        <v>https://rategain.com/blog/driving-higher-hotel-occupancy-rates/</v>
+        <v>https://rategain.com/blog/hotel-data-analytics/</v>
       </c>
       <c r="D80" t="str">
         <v xml:space="preserve"> 7</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>The Complete Guide to Hotel Digital Marketing: Boost Your Online Presence and Drive Bookings</v>
+        <v>Driving Higher Hotel Occupancy Rates: Implementing Effective Strategies</v>
       </c>
       <c r="B81" t="str">
-        <v>MAY 24, 2023</v>
+        <v>MAY 25, 2023</v>
       </c>
       <c r="C81" t="str">
-        <v>https://rategain.com/blog/the-complete-guide-to-hotel-digital-marketing/</v>
+        <v>https://rategain.com/blog/driving-higher-hotel-occupancy-rates/</v>
       </c>
       <c r="D81" t="str">
         <v xml:space="preserve"> 7</v>
@@ -1538,69 +1538,69 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>What is a Global Distribution System (GDS)? How does it Benefit Your Hotel?</v>
+        <v>The Complete Guide to Hotel Digital Marketing: Boost Your Online Presence and Drive Bookings</v>
       </c>
       <c r="B82" t="str">
-        <v>MAY 23, 2023</v>
+        <v>MAY 24, 2023</v>
       </c>
       <c r="C82" t="str">
-        <v>https://rategain.com/blog/global-distribution-system/</v>
+        <v>https://rategain.com/blog/the-complete-guide-to-hotel-digital-marketing/</v>
       </c>
       <c r="D82" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Unleashing the Power of Hotel Technology: The Game Changer in Tech-Savvy Hospitality</v>
+        <v>What is a Global Distribution System (GDS)? How does it Benefit Your Hotel?</v>
       </c>
       <c r="B83" t="str">
         <v>MAY 23, 2023</v>
       </c>
       <c r="C83" t="str">
-        <v>https://rategain.com/blog/power-of-hotel-technology/</v>
+        <v>https://rategain.com/blog/global-distribution-system/</v>
       </c>
       <c r="D83" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Unlocking Profitability: An Introduction to Hotel Revenue Management</v>
+        <v>Unleashing the Power of Hotel Technology: The Game Changer in Tech-Savvy Hospitality</v>
       </c>
       <c r="B84" t="str">
         <v>MAY 23, 2023</v>
       </c>
       <c r="C84" t="str">
-        <v>https://rategain.com/blog/introduction-to-hotel-revenue-management/</v>
+        <v>https://rategain.com/blog/power-of-hotel-technology/</v>
       </c>
       <c r="D84" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Why Should All Destinations Have a Destination Marketing Organization (DMO)?</v>
+        <v>Unlocking Profitability: An Introduction to Hotel Revenue Management</v>
       </c>
       <c r="B85" t="str">
-        <v>MAY 22, 2023</v>
+        <v>MAY 23, 2023</v>
       </c>
       <c r="C85" t="str">
-        <v>https://rategain.com/blog/why-should-destinations-have-a-destination-marketing-organization/</v>
+        <v>https://rategain.com/blog/introduction-to-hotel-revenue-management/</v>
       </c>
       <c r="D85" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Destination Marketing Organization: Its Roles, Importance, and Benefits in the Hospitality Industry</v>
+        <v>Why Should All Destinations Have a Destination Marketing Organization (DMO)?</v>
       </c>
       <c r="B86" t="str">
         <v>MAY 22, 2023</v>
       </c>
       <c r="C86" t="str">
-        <v>https://rategain.com/blog/destination-marketing-guide/</v>
+        <v>https://rategain.com/blog/why-should-destinations-have-a-destination-marketing-organization/</v>
       </c>
       <c r="D86" t="str">
         <v xml:space="preserve"> 2</v>
@@ -1608,41 +1608,41 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Difference Between a Hotel PMS, Channel Manager, OTAs, and Booking Engine</v>
+        <v>Destination Marketing Organization: Its Roles, Importance, and Benefits in the Hospitality Industry</v>
       </c>
       <c r="B87" t="str">
         <v>MAY 22, 2023</v>
       </c>
       <c r="C87" t="str">
-        <v>https://rategain.com/blog/difference-between-a-hotel-pms-channel-manager-otas-and-booking-engine/</v>
+        <v>https://rategain.com/blog/destination-marketing-guide/</v>
       </c>
       <c r="D87" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>The Complete Guide to Distribution Channels in the Hotel Industry</v>
+        <v>Difference Between a Hotel PMS, Channel Manager, OTAs, and Booking Engine</v>
       </c>
       <c r="B88" t="str">
-        <v>MAY 21, 2023</v>
+        <v>MAY 22, 2023</v>
       </c>
       <c r="C88" t="str">
-        <v>https://rategain.com/blog/hotel-distribution-channels-guide/</v>
+        <v>https://rategain.com/blog/difference-between-a-hotel-pms-channel-manager-otas-and-booking-engine/</v>
       </c>
       <c r="D88" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Unlocking New Revenue Streams: A Guide to Effective Channel Management for Hospitality Businesses</v>
+        <v>The Complete Guide to Distribution Channels in the Hotel Industry</v>
       </c>
       <c r="B89" t="str">
         <v>MAY 21, 2023</v>
       </c>
       <c r="C89" t="str">
-        <v>https://rategain.com/blog/unlocking-new-revenue-streams-a-guide-to-effective-channel-management-for-hospitality-businesses/</v>
+        <v>https://rategain.com/blog/hotel-distribution-channels-guide/</v>
       </c>
       <c r="D89" t="str">
         <v xml:space="preserve"> 3</v>
@@ -1650,55 +1650,55 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Unveiling the Magic of Metasearch Engines: A Game Changer for Online Businesses</v>
+        <v>Unlocking New Revenue Streams: A Guide to Effective Channel Management for Hospitality Businesses</v>
       </c>
       <c r="B90" t="str">
         <v>MAY 21, 2023</v>
       </c>
       <c r="C90" t="str">
-        <v>https://rategain.com/blog/unveiling-the-magic-of-metasearch-engines/</v>
+        <v>https://rategain.com/blog/unlocking-new-revenue-streams-a-guide-to-effective-channel-management-for-hospitality-businesses/</v>
       </c>
       <c r="D90" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Where does Content Fit in the Evolution of Hotel Distribution?</v>
+        <v>Unveiling the Magic of Metasearch Engines: A Game Changer for Online Businesses</v>
       </c>
       <c r="B91" t="str">
-        <v>MAY 20, 2023</v>
+        <v>MAY 21, 2023</v>
       </c>
       <c r="C91" t="str">
-        <v>https://rategain.com/blog/content-management-for-hotel-distribution/</v>
+        <v>https://rategain.com/blog/unveiling-the-magic-of-metasearch-engines/</v>
       </c>
       <c r="D91" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Boost Your Hotel's Online Presence with a Hotel Content Management System</v>
+        <v>Where does Content Fit in the Evolution of Hotel Distribution?</v>
       </c>
       <c r="B92" t="str">
-        <v>MAY 19, 2023</v>
+        <v>MAY 20, 2023</v>
       </c>
       <c r="C92" t="str">
-        <v>https://rategain.com/blog/hotel-content-management-system-for-increased-online-presence/</v>
+        <v>https://rategain.com/blog/content-management-for-hotel-distribution/</v>
       </c>
       <c r="D92" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Streamline Your Hotel Pricing Strategy with Advanced Rate Shopping Software</v>
+        <v>Boost Your Hotel's Online Presence with a Hotel Content Management System</v>
       </c>
       <c r="B93" t="str">
-        <v>MAY 18, 2023</v>
+        <v>MAY 19, 2023</v>
       </c>
       <c r="C93" t="str">
-        <v>https://rategain.com/blog/streamlining-hotel-pricing-with-rate-shopping-software/</v>
+        <v>https://rategain.com/blog/hotel-content-management-system-for-increased-online-presence/</v>
       </c>
       <c r="D93" t="str">
         <v xml:space="preserve"> 2</v>
@@ -1706,41 +1706,41 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Dynamic Pricing Strategy in Hotels for Hospitality Industry</v>
+        <v>Streamline Your Hotel Pricing Strategy with Advanced Rate Shopping Software</v>
       </c>
       <c r="B94" t="str">
         <v>MAY 18, 2023</v>
       </c>
       <c r="C94" t="str">
-        <v>https://rategain.com/blog/what-dynamic-pricing-can-do-to-your-hotel-revenue/</v>
+        <v>https://rategain.com/blog/streamlining-hotel-pricing-with-rate-shopping-software/</v>
       </c>
       <c r="D94" t="str">
-        <v xml:space="preserve"> 10</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Hotel Pricing Strategy: Maximizing Revenue Through Effective Pricing Techniques</v>
+        <v>Dynamic Pricing Strategy in Hotels for Hospitality Industry</v>
       </c>
       <c r="B95" t="str">
         <v>MAY 18, 2023</v>
       </c>
       <c r="C95" t="str">
-        <v>https://rategain.com/blog/hotel-pricing-strategy-to-maximize-revenue/</v>
+        <v>https://rategain.com/blog/what-dynamic-pricing-can-do-to-your-hotel-revenue/</v>
       </c>
       <c r="D95" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>How To Use Google Hotel Ads: A Complete Guide</v>
+        <v>Hotel Pricing Strategy: Maximizing Revenue Through Effective Pricing Techniques</v>
       </c>
       <c r="B96" t="str">
         <v>MAY 18, 2023</v>
       </c>
       <c r="C96" t="str">
-        <v>https://rategain.com/blog/google-hotel-ads-guide/</v>
+        <v>https://rategain.com/blog/hotel-pricing-strategy-to-maximize-revenue/</v>
       </c>
       <c r="D96" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1748,83 +1748,83 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Boost Your Hotel Revenue with Efficient Hotel Inventory Management</v>
+        <v>How To Use Google Hotel Ads: A Complete Guide</v>
       </c>
       <c r="B97" t="str">
-        <v>MAY 16, 2023</v>
+        <v>MAY 18, 2023</v>
       </c>
       <c r="C97" t="str">
-        <v>https://rategain.com/blog/boost-hotel-revenue-inventory-availability-management/</v>
+        <v>https://rategain.com/blog/google-hotel-ads-guide/</v>
       </c>
       <c r="D97" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Cracking the Code: How to Benefit from Hotel Wholesalers</v>
+        <v>Boost Your Hotel Revenue with Efficient Hotel Inventory Management</v>
       </c>
       <c r="B98" t="str">
         <v>MAY 16, 2023</v>
       </c>
       <c r="C98" t="str">
-        <v>https://rategain.com/blog/how-to-benefit-from-hotel-wholesalers/</v>
+        <v>https://rategain.com/blog/boost-hotel-revenue-inventory-availability-management/</v>
       </c>
       <c r="D98" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>8 Easy Tips for Hotel Revenue Managers to Cope With Rate Parity Issues</v>
+        <v>Cracking the Code: How to Benefit from Hotel Wholesalers</v>
       </c>
       <c r="B99" t="str">
-        <v>MAY 15, 2023</v>
+        <v>MAY 16, 2023</v>
       </c>
       <c r="C99" t="str">
-        <v>https://rategain.com/blog/tips-hotel-manage-rate-parity-issue/</v>
+        <v>https://rategain.com/blog/how-to-benefit-from-hotel-wholesalers/</v>
       </c>
       <c r="D99" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>What is Hotel Rate Parity? Why is it Important in the Hotel Industry?</v>
+        <v>8 Easy Tips for Hotel Revenue Managers to Cope With Rate Parity Issues</v>
       </c>
       <c r="B100" t="str">
         <v>MAY 15, 2023</v>
       </c>
       <c r="C100" t="str">
-        <v>https://rategain.com/blog/what-is-hotel-rate-parity/</v>
+        <v>https://rategain.com/blog/tips-hotel-manage-rate-parity-issue/</v>
       </c>
       <c r="D100" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>18 Factors to Consider before Investing in Channel Manager for Your Hotel</v>
+        <v>What is Hotel Rate Parity? Why is it Important in the Hotel Industry?</v>
       </c>
       <c r="B101" t="str">
-        <v>MAY 14, 2023</v>
+        <v>MAY 15, 2023</v>
       </c>
       <c r="C101" t="str">
-        <v>https://rategain.com/blog/18-factors-to-consider-before-investing-in-channel-manager-for-your-hotel/</v>
+        <v>https://rategain.com/blog/what-is-hotel-rate-parity/</v>
       </c>
       <c r="D101" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Crucial Hotel Sales Strategies to Boost Occupancy and Revenue</v>
+        <v>18 Factors to Consider before Investing in Channel Manager for Your Hotel</v>
       </c>
       <c r="B102" t="str">
         <v>MAY 14, 2023</v>
       </c>
       <c r="C102" t="str">
-        <v>https://rategain.com/blog/hotel-sales-strategies/</v>
+        <v>https://rategain.com/blog/18-factors-to-consider-before-investing-in-channel-manager-for-your-hotel/</v>
       </c>
       <c r="D102" t="str">
         <v xml:space="preserve"> 4</v>
@@ -1832,27 +1832,27 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>What is a Hotel Channel Manager? How Do You Choose the Perfect One?</v>
+        <v>Crucial Hotel Sales Strategies to Boost Occupancy and Revenue</v>
       </c>
       <c r="B103" t="str">
         <v>MAY 14, 2023</v>
       </c>
       <c r="C103" t="str">
-        <v>https://rategain.com/blog/what-is-a-hotel-channel-manager/</v>
+        <v>https://rategain.com/blog/hotel-sales-strategies/</v>
       </c>
       <c r="D103" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>How Can Content Solve The Expectation Gap for Hotels?</v>
+        <v>What is a Hotel Channel Manager? How Do You Choose the Perfect One?</v>
       </c>
       <c r="B104" t="str">
-        <v>MAY 13, 2023</v>
+        <v>MAY 14, 2023</v>
       </c>
       <c r="C104" t="str">
-        <v>https://rategain.com/blog/how-content-can-solve-the-expectation-gap-for-hotels/</v>
+        <v>https://rategain.com/blog/what-is-a-hotel-channel-manager/</v>
       </c>
       <c r="D104" t="str">
         <v xml:space="preserve"> 5</v>
@@ -1860,83 +1860,83 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Changing Markets Post-Pandemic: Guest Behaviors Changing Booking Inspiration</v>
+        <v>How Can Content Solve The Expectation Gap for Hotels?</v>
       </c>
       <c r="B105" t="str">
-        <v>MAY 11, 2023</v>
+        <v>MAY 13, 2023</v>
       </c>
       <c r="C105" t="str">
-        <v>https://rategain.com/blog/guest-behaviors-changing-booking-inspiration/</v>
+        <v>https://rategain.com/blog/how-content-can-solve-the-expectation-gap-for-hotels/</v>
       </c>
       <c r="D105" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>What is Hotel Occupancy Rate? How to Calculate it?</v>
+        <v>Changing Markets Post-Pandemic: Guest Behaviors Changing Booking Inspiration</v>
       </c>
       <c r="B106" t="str">
-        <v>MAY 6, 2023</v>
+        <v>MAY 11, 2023</v>
       </c>
       <c r="C106" t="str">
-        <v>https://rategain.com/blog/hotel-occupancy-rate/</v>
+        <v>https://rategain.com/blog/guest-behaviors-changing-booking-inspiration/</v>
       </c>
       <c r="D106" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Is RevPAR the Best Metric to Measure Profitability?</v>
+        <v>What is Hotel Occupancy Rate? How to Calculate it?</v>
       </c>
       <c r="B107" t="str">
-        <v>MAY 5, 2023</v>
+        <v>MAY 6, 2023</v>
       </c>
       <c r="C107" t="str">
-        <v>https://rategain.com/blog/is-revpar-the-best-metric-to-measure-profitability/</v>
+        <v>https://rategain.com/blog/hotel-occupancy-rate/</v>
       </c>
       <c r="D107" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Why Should Hotels Update Content On OTAs Frequently?</v>
+        <v>Is RevPAR the Best Metric to Measure Profitability?</v>
       </c>
       <c r="B108" t="str">
         <v>MAY 5, 2023</v>
       </c>
       <c r="C108" t="str">
-        <v>https://rategain.com/blog/why-are-frequent-content-updates-important/</v>
+        <v>https://rategain.com/blog/is-revpar-the-best-metric-to-measure-profitability/</v>
       </c>
       <c r="D108" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Why Metasearch is critical for your Direct Bookings Strategy</v>
+        <v>Why Should Hotels Update Content On OTAs Frequently?</v>
       </c>
       <c r="B109" t="str">
-        <v>MAY 4, 2023</v>
+        <v>MAY 5, 2023</v>
       </c>
       <c r="C109" t="str">
-        <v>https://rategain.com/blog/why-metasearch-is-critical-for-your-direct-bookings-strategy/</v>
+        <v>https://rategain.com/blog/why-are-frequent-content-updates-important/</v>
       </c>
       <c r="D109" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Why Content on OTAs is Critical for Improving Conversion Rates</v>
+        <v>Why Metasearch is critical for your Direct Bookings Strategy</v>
       </c>
       <c r="B110" t="str">
-        <v>MAY 3, 2023</v>
+        <v>MAY 4, 2023</v>
       </c>
       <c r="C110" t="str">
-        <v>https://rategain.com/blog/why-content-on-otas-is-critical-for-improving-conversion-rates/</v>
+        <v>https://rategain.com/blog/why-metasearch-is-critical-for-your-direct-bookings-strategy/</v>
       </c>
       <c r="D110" t="str">
         <v xml:space="preserve"> 4</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>How do Hotels Distribute Inventory to Drive Bookings</v>
+        <v>Why Content on OTAs is Critical for Improving Conversion Rates</v>
       </c>
       <c r="B111" t="str">
         <v>MAY 3, 2023</v>
       </c>
       <c r="C111" t="str">
-        <v>https://rategain.com/blog/how-hotels-distribute-inventory-to-drive-bookings/</v>
+        <v>https://rategain.com/blog/why-content-on-otas-is-critical-for-improving-conversion-rates/</v>
       </c>
       <c r="D111" t="str">
         <v xml:space="preserve"> 4</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>What is RevPAR ? Why does it Matter?</v>
+        <v>How do Hotels Distribute Inventory to Drive Bookings</v>
       </c>
       <c r="B112" t="str">
-        <v>MAY 1, 2023</v>
+        <v>MAY 3, 2023</v>
       </c>
       <c r="C112" t="str">
-        <v>https://rategain.com/blog/what-is-revpar-why-does-it-matter/</v>
+        <v>https://rategain.com/blog/how-hotels-distribute-inventory-to-drive-bookings/</v>
       </c>
       <c r="D112" t="str">
         <v xml:space="preserve"> 4</v>
@@ -1972,41 +1972,41 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>A Complete Guide to Hotel Marketing Strategy for 2023</v>
+        <v>What is RevPAR ? Why does it Matter?</v>
       </c>
       <c r="B113" t="str">
-        <v>APRIL 30, 2023</v>
+        <v>MAY 1, 2023</v>
       </c>
       <c r="C113" t="str">
-        <v>https://rategain.com/blog/hotel-marketing-strategy-for-2023/</v>
+        <v>https://rategain.com/blog/what-is-revpar-why-does-it-matter/</v>
       </c>
       <c r="D113" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Latin America’s Hospitality Industry is Ready to Take the AI Leap into the Future</v>
+        <v>A Complete Guide to Hotel Marketing Strategy for 2023</v>
       </c>
       <c r="B114" t="str">
-        <v>APRIL 27, 2023</v>
+        <v>APRIL 30, 2023</v>
       </c>
       <c r="C114" t="str">
-        <v>https://rategain.com/blog/future-of-hospitality-in-latin-america/</v>
+        <v>https://rategain.com/blog/hotel-marketing-strategy-for-2023/</v>
       </c>
       <c r="D114" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sustainability: The Conversation We Need To Have With ChatGPT Today</v>
+        <v>Latin America’s Hospitality Industry is Ready to Take the AI Leap into the Future</v>
       </c>
       <c r="B115" t="str">
         <v>APRIL 27, 2023</v>
       </c>
       <c r="C115" t="str">
-        <v>https://rategain.com/blog/sustainable-travel/</v>
+        <v>https://rategain.com/blog/future-of-hospitality-in-latin-america/</v>
       </c>
       <c r="D115" t="str">
         <v xml:space="preserve"> 4</v>
@@ -2014,27 +2014,27 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Here's Why You Should Care About Hotel Content Management &amp; Distribution</v>
+        <v>Sustainability: The Conversation We Need To Have With ChatGPT Today</v>
       </c>
       <c r="B116" t="str">
-        <v>APRIL 22, 2023</v>
+        <v>APRIL 27, 2023</v>
       </c>
       <c r="C116" t="str">
-        <v>https://rategain.com/blog/heres-why-you-should-care-about-hotel-content-management-distribution/</v>
+        <v>https://rategain.com/blog/sustainable-travel/</v>
       </c>
       <c r="D116" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Why Ease of Use is the Core of any Booking Engine?</v>
+        <v>Here's Why You Should Care About Hotel Content Management &amp; Distribution</v>
       </c>
       <c r="B117" t="str">
-        <v>APRIL 15, 2023</v>
+        <v>APRIL 22, 2023</v>
       </c>
       <c r="C117" t="str">
-        <v>https://rategain.com/blog/why-ease-of-use-is-the-core-of-any-booking-engine/</v>
+        <v>https://rategain.com/blog/heres-why-you-should-care-about-hotel-content-management-distribution/</v>
       </c>
       <c r="D117" t="str">
         <v xml:space="preserve"> 7</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Why is Security Critical for a Booking Engine?</v>
+        <v>Why Ease of Use is the Core of any Booking Engine?</v>
       </c>
       <c r="B118" t="str">
-        <v>APRIL 14, 2023</v>
+        <v>APRIL 15, 2023</v>
       </c>
       <c r="C118" t="str">
-        <v>https://rategain.com/blog/why-is-security-critical-for-a-booking-engine/</v>
+        <v>https://rategain.com/blog/why-ease-of-use-is-the-core-of-any-booking-engine/</v>
       </c>
       <c r="D118" t="str">
         <v xml:space="preserve"> 7</v>
@@ -2056,69 +2056,69 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Thank You Booking.com For Showing Us The Future</v>
+        <v>Why is Security Critical for a Booking Engine?</v>
       </c>
       <c r="B119" t="str">
-        <v>APRIL 13, 2023</v>
+        <v>APRIL 14, 2023</v>
       </c>
       <c r="C119" t="str">
-        <v>https://rategain.com/blog/thank-you-booking-com-for-showing-us-the-future/</v>
+        <v>https://rategain.com/blog/why-is-security-critical-for-a-booking-engine/</v>
       </c>
       <c r="D119" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>How to Evaluate a Booking Engine?</v>
+        <v>Thank You Booking.com For Showing Us The Future</v>
       </c>
       <c r="B120" t="str">
         <v>APRIL 13, 2023</v>
       </c>
       <c r="C120" t="str">
-        <v>https://rategain.com/blog/how-to-evaluate-a-booking-engine/</v>
+        <v>https://rategain.com/blog/thank-you-booking-com-for-showing-us-the-future/</v>
       </c>
       <c r="D120" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>All You Need to Know About a Hotel Booking Engine</v>
+        <v>How to Evaluate a Booking Engine?</v>
       </c>
       <c r="B121" t="str">
-        <v>APRIL 12, 2023</v>
+        <v>APRIL 13, 2023</v>
       </c>
       <c r="C121" t="str">
-        <v>https://rategain.com/blog/hotel-booking-engine/</v>
+        <v>https://rategain.com/blog/how-to-evaluate-a-booking-engine/</v>
       </c>
       <c r="D121" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Revolutionizing Guest Experiences and Revenue Management with AI</v>
+        <v>All You Need to Know About a Hotel Booking Engine</v>
       </c>
       <c r="B122" t="str">
-        <v>APRIL 6, 2023</v>
+        <v>APRIL 12, 2023</v>
       </c>
       <c r="C122" t="str">
-        <v>https://rategain.com/blog/revolutionizing-guest-experiences-and-revenue-management-with-ai/</v>
+        <v>https://rategain.com/blog/hotel-booking-engine/</v>
       </c>
       <c r="D122" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>What is Direct Booking?</v>
+        <v>Revolutionizing Guest Experiences and Revenue Management with AI</v>
       </c>
       <c r="B123" t="str">
-        <v>APRIL 5, 2023</v>
+        <v>APRIL 6, 2023</v>
       </c>
       <c r="C123" t="str">
-        <v>https://rategain.com/blog/what-is-a-direct-booking/</v>
+        <v>https://rategain.com/blog/revolutionizing-guest-experiences-and-revenue-management-with-ai/</v>
       </c>
       <c r="D123" t="str">
         <v xml:space="preserve"> 9</v>
@@ -2126,69 +2126,69 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>The Relevance of Content for Hotels</v>
+        <v>What is Direct Booking?</v>
       </c>
       <c r="B124" t="str">
-        <v>APRIL 1, 2023</v>
+        <v>APRIL 5, 2023</v>
       </c>
       <c r="C124" t="str">
-        <v>https://rategain.com/blog/relevance-of-hotel-content/</v>
+        <v>https://rategain.com/blog/what-is-a-direct-booking/</v>
       </c>
       <c r="D124" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Leading the Way: Top 8 Hospitality Technology Trends to Watch in 2023</v>
+        <v>The Relevance of Content for Hotels</v>
       </c>
       <c r="B125" t="str">
-        <v>MARCH 21, 2023</v>
+        <v>APRIL 1, 2023</v>
       </c>
       <c r="C125" t="str">
-        <v>https://rategain.com/blog/leading-the-way-top-8-hospitality-technology-trends-to-watch-in-2023/</v>
+        <v>https://rategain.com/blog/relevance-of-hotel-content/</v>
       </c>
       <c r="D125" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>A Complete Guide to Hotel Connectivity &amp; Distribution</v>
+        <v>Leading the Way: Top 8 Hospitality Technology Trends to Watch in 2023</v>
       </c>
       <c r="B126" t="str">
         <v>MARCH 21, 2023</v>
       </c>
       <c r="C126" t="str">
-        <v>https://rategain.com/blog/what-is-hotel-connectivity-distribution-complete-guide/</v>
+        <v>https://rategain.com/blog/leading-the-way-top-8-hospitality-technology-trends-to-watch-in-2023/</v>
       </c>
       <c r="D126" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Revolutionizing the Hospitality Industry: The Role of Advanced Channel Managers in Driving Hotel Business Growth</v>
+        <v>A Complete Guide to Hotel Connectivity &amp; Distribution</v>
       </c>
       <c r="B127" t="str">
-        <v>MARCH 16, 2023</v>
+        <v>MARCH 21, 2023</v>
       </c>
       <c r="C127" t="str">
-        <v>https://rategain.com/blog/revolutionizing-the-hospitality-industry-the-role-of-advanced-channel-managers-in-driving-hotel-business-growth/</v>
+        <v>https://rategain.com/blog/what-is-hotel-connectivity-distribution-complete-guide/</v>
       </c>
       <c r="D127" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>What are Hotel Industry Statistics?</v>
+        <v>Revolutionizing the Hospitality Industry: The Role of Advanced Channel Managers in Driving Hotel Business Growth</v>
       </c>
       <c r="B128" t="str">
-        <v>MARCH 6, 2023</v>
+        <v>MARCH 16, 2023</v>
       </c>
       <c r="C128" t="str">
-        <v>https://rategain.com/blog/what-are-hotel-industry-statistics/</v>
+        <v>https://rategain.com/blog/revolutionizing-the-hospitality-industry-the-role-of-advanced-channel-managers-in-driving-hotel-business-growth/</v>
       </c>
       <c r="D128" t="str">
         <v xml:space="preserve"> 4</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>The Data Goldmine: The 3 Step Process to Unlocking the Power of Guest Data</v>
+        <v>What are Hotel Industry Statistics?</v>
       </c>
       <c r="B129" t="str">
-        <v>FEBRUARY 15, 2023</v>
+        <v>MARCH 6, 2023</v>
       </c>
       <c r="C129" t="str">
-        <v>https://rategain.com/blog/the-data-goldmine-the-3-step-process-to-unlocking-the-power-of-guest-data/</v>
+        <v>https://rategain.com/blog/what-are-hotel-industry-statistics/</v>
       </c>
       <c r="D129" t="str">
         <v xml:space="preserve"> 4</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>How To Use Guest Messaging To Improve Revenue</v>
+        <v>The Data Goldmine: The 3 Step Process to Unlocking the Power of Guest Data</v>
       </c>
       <c r="B130" t="str">
-        <v>JANUARY 31, 2023</v>
+        <v>FEBRUARY 15, 2023</v>
       </c>
       <c r="C130" t="str">
-        <v>https://rategain.com/blog/how-to-use-guest-messaging-to-improve-revenue/</v>
+        <v>https://rategain.com/blog/the-data-goldmine-the-3-step-process-to-unlocking-the-power-of-guest-data/</v>
       </c>
       <c r="D130" t="str">
         <v xml:space="preserve"> 4</v>
@@ -2224,97 +2224,97 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Spin Around the Challenges of an Economic Downturn with AI-Enabled Solutions</v>
+        <v>How To Use Guest Messaging To Improve Revenue</v>
       </c>
       <c r="B131" t="str">
-        <v>JANUARY 30, 2023</v>
+        <v>JANUARY 31, 2023</v>
       </c>
       <c r="C131" t="str">
-        <v>https://rategain.com/blog/spin-around-the-challenges-of-an-economic-downturn-with-ai-enabled-solutions/</v>
+        <v>https://rategain.com/blog/how-to-use-guest-messaging-to-improve-revenue/</v>
       </c>
       <c r="D131" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>What is a Hotel Property Management System (PMS)?</v>
+        <v>Spin Around the Challenges of an Economic Downturn with AI-Enabled Solutions</v>
       </c>
       <c r="B132" t="str">
-        <v>JANUARY 23, 2023</v>
+        <v>JANUARY 30, 2023</v>
       </c>
       <c r="C132" t="str">
-        <v>https://rategain.com/blog/hotel-property-management-system/</v>
+        <v>https://rategain.com/blog/spin-around-the-challenges-of-an-economic-downturn-with-ai-enabled-solutions/</v>
       </c>
       <c r="D132" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Unlocking A New Level Of Luxury For Dubai: The Rising Need For Technology</v>
+        <v>What is a Hotel Property Management System (PMS)?</v>
       </c>
       <c r="B133" t="str">
-        <v>JANUARY 20, 2023</v>
+        <v>JANUARY 23, 2023</v>
       </c>
       <c r="C133" t="str">
-        <v>https://rategain.com/blog/unlocking-a-new-level-of-luxury-for-dubai/</v>
+        <v>https://rategain.com/blog/hotel-property-management-system/</v>
       </c>
       <c r="D133" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v xml:space="preserve">Troubleshooting Guest Engagement: Is the Answer in the Palm of your Hands? </v>
+        <v>Unlocking A New Level Of Luxury For Dubai: The Rising Need For Technology</v>
       </c>
       <c r="B134" t="str">
-        <v>JANUARY 6, 2023</v>
+        <v>JANUARY 20, 2023</v>
       </c>
       <c r="C134" t="str">
-        <v>https://rategain.com/blog/troubleshooting-guest-engagement/</v>
+        <v>https://rategain.com/blog/unlocking-a-new-level-of-luxury-for-dubai/</v>
       </c>
       <c r="D134" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>No Shortage of Guest Engagement Despite Labour Shortage in the UK: Why Technology is the Answer</v>
+        <v xml:space="preserve">Troubleshooting Guest Engagement: Is the Answer in the Palm of your Hands? </v>
       </c>
       <c r="B135" t="str">
-        <v>DECEMBER 23, 2022</v>
+        <v>JANUARY 6, 2023</v>
       </c>
       <c r="C135" t="str">
-        <v>https://rategain.com/blog/solving-labor-shortage-with-technology-for-guest-engagement/</v>
+        <v>https://rategain.com/blog/troubleshooting-guest-engagement/</v>
       </c>
       <c r="D135" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Journey to better guest satisfaction: Why digitisation is the shortcut you need</v>
+        <v>No Shortage of Guest Engagement Despite Labour Shortage in the UK: Why Technology is the Answer</v>
       </c>
       <c r="B136" t="str">
-        <v>DECEMBER 16, 2022</v>
+        <v>DECEMBER 23, 2022</v>
       </c>
       <c r="C136" t="str">
-        <v>https://rategain.com/blog/journey-to-better-guest-satisfaction-why-digitisation-is-the-shortcut-you-need/</v>
+        <v>https://rategain.com/blog/solving-labor-shortage-with-technology-for-guest-engagement/</v>
       </c>
       <c r="D136" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>7 Tips for A Booking-friendly Hotel Website</v>
+        <v>Journey to better guest satisfaction: Why digitisation is the shortcut you need</v>
       </c>
       <c r="B137" t="str">
-        <v>DECEMBER 12, 2022</v>
+        <v>DECEMBER 16, 2022</v>
       </c>
       <c r="C137" t="str">
-        <v>https://rategain.com/blog/tips-for-a-booking-friendly-hotel-website/</v>
+        <v>https://rategain.com/blog/journey-to-better-guest-satisfaction-why-digitisation-is-the-shortcut-you-need/</v>
       </c>
       <c r="D137" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2322,13 +2322,13 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>The Problem In Paradise: What The Hotels Of Maldives Need To Know</v>
+        <v>7 Tips for A Booking-friendly Hotel Website</v>
       </c>
       <c r="B138" t="str">
-        <v>DECEMBER 6, 2022</v>
+        <v>DECEMBER 12, 2022</v>
       </c>
       <c r="C138" t="str">
-        <v>https://rategain.com/blog/what-the-hotels-of-maldives-need-to-know/</v>
+        <v>https://rategain.com/blog/tips-for-a-booking-friendly-hotel-website/</v>
       </c>
       <c r="D138" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2336,41 +2336,41 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>The Good Side Of AI: Read Between The Lines To Understand Your Guests’ Feelings</v>
+        <v>The Problem In Paradise: What The Hotels Of Maldives Need To Know</v>
       </c>
       <c r="B139" t="str">
-        <v>NOVEMBER 11, 2022</v>
+        <v>DECEMBER 6, 2022</v>
       </c>
       <c r="C139" t="str">
-        <v>https://rategain.com/blog/ai-to-understand-guest-feelings/</v>
+        <v>https://rategain.com/blog/what-the-hotels-of-maldives-need-to-know/</v>
       </c>
       <c r="D139" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Preparing for the Future of Air Travel Demand</v>
+        <v>The Good Side Of AI: Read Between The Lines To Understand Your Guests’ Feelings</v>
       </c>
       <c r="B140" t="str">
-        <v>NOVEMBER 4, 2022</v>
+        <v>NOVEMBER 11, 2022</v>
       </c>
       <c r="C140" t="str">
-        <v>https://rategain.com/blog/preparing-for-the-future-of-air-travel-demand/</v>
+        <v>https://rategain.com/blog/ai-to-understand-guest-feelings/</v>
       </c>
       <c r="D140" t="str">
-        <v xml:space="preserve"> 1</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Digital Hospitality: No Longer An Oxymoron</v>
+        <v>Preparing for the Future of Air Travel Demand</v>
       </c>
       <c r="B141" t="str">
-        <v>NOVEMBER 3, 2022</v>
+        <v>NOVEMBER 4, 2022</v>
       </c>
       <c r="C141" t="str">
-        <v>https://rategain.com/blog/digital-hospitality-no-longer-an-oxymoron/</v>
+        <v>https://rategain.com/blog/preparing-for-the-future-of-air-travel-demand/</v>
       </c>
       <c r="D141" t="str">
         <v xml:space="preserve"> 1</v>
@@ -2378,27 +2378,27 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Peak Experience For The Peak Season</v>
+        <v>Digital Hospitality: No Longer An Oxymoron</v>
       </c>
       <c r="B142" t="str">
-        <v>OCTOBER 27, 2022</v>
+        <v>NOVEMBER 3, 2022</v>
       </c>
       <c r="C142" t="str">
-        <v>https://rategain.com/blog/peak-experience-for-the-peak-season/</v>
+        <v>https://rategain.com/blog/digital-hospitality-no-longer-an-oxymoron/</v>
       </c>
       <c r="D142" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Forward-looking Insights on Travel Demand: Top Trending Cities in Asia (Oct – Dec 2022)</v>
+        <v>Peak Experience For The Peak Season</v>
       </c>
       <c r="B143" t="str">
-        <v>OCTOBER 24, 2022</v>
+        <v>OCTOBER 27, 2022</v>
       </c>
       <c r="C143" t="str">
-        <v>https://rategain.com/blog/travel-demand-data-report-asia-oct-2022/</v>
+        <v>https://rategain.com/blog/peak-experience-for-the-peak-season/</v>
       </c>
       <c r="D143" t="str">
         <v xml:space="preserve"> 2</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Guest Dissatisfaction: De-mystified</v>
+        <v>Forward-looking Insights on Travel Demand: Top Trending Cities in Asia (Oct – Dec 2022)</v>
       </c>
       <c r="B144" t="str">
-        <v>OCTOBER 19, 2022</v>
+        <v>OCTOBER 24, 2022</v>
       </c>
       <c r="C144" t="str">
-        <v>https://rategain.com/blog/guest-dissatisfaction-de-mystified/</v>
+        <v>https://rategain.com/blog/travel-demand-data-report-asia-oct-2022/</v>
       </c>
       <c r="D144" t="str">
         <v xml:space="preserve"> 2</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Beyond Just Emojis: Leveraging WhatsApp To Improve Guest Experience</v>
+        <v>Guest Dissatisfaction: De-mystified</v>
       </c>
       <c r="B145" t="str">
-        <v>OCTOBER 11, 2022</v>
+        <v>OCTOBER 19, 2022</v>
       </c>
       <c r="C145" t="str">
-        <v>https://rategain.com/blog/beyond-just-emojis-leveraging-whatsapp-to-improve-guest-experience/</v>
+        <v>https://rategain.com/blog/guest-dissatisfaction-de-mystified/</v>
       </c>
       <c r="D145" t="str">
         <v xml:space="preserve"> 2</v>
@@ -2434,27 +2434,27 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Experiences Above All: The Long and Short of Guest Experiences</v>
+        <v>Beyond Just Emojis: Leveraging WhatsApp To Improve Guest Experience</v>
       </c>
       <c r="B146" t="str">
-        <v>OCTOBER 6, 2022</v>
+        <v>OCTOBER 11, 2022</v>
       </c>
       <c r="C146" t="str">
-        <v>https://rategain.com/blog/experiences-above-all-the-long-and-short-of-guest-experiences/</v>
+        <v>https://rategain.com/blog/beyond-just-emojis-leveraging-whatsapp-to-improve-guest-experience/</v>
       </c>
       <c r="D146" t="str">
-        <v xml:space="preserve"> 1</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Humans Of RateGain: Q&amp;A With Mark Haywood</v>
+        <v>Experiences Above All: The Long and Short of Guest Experiences</v>
       </c>
       <c r="B147" t="str">
-        <v>OCTOBER 4, 2022</v>
+        <v>OCTOBER 6, 2022</v>
       </c>
       <c r="C147" t="str">
-        <v>https://rategain.com/blog/humans-of-rategain-mark-haywood/</v>
+        <v>https://rategain.com/blog/experiences-above-all-the-long-and-short-of-guest-experiences/</v>
       </c>
       <c r="D147" t="str">
         <v xml:space="preserve"> 1</v>
@@ -2462,41 +2462,41 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>India’s Festive Season Travel Outlook</v>
+        <v>Humans Of RateGain: Q&amp;A With Mark Haywood</v>
       </c>
       <c r="B148" t="str">
-        <v>OCTOBER 3, 2022</v>
+        <v>OCTOBER 4, 2022</v>
       </c>
       <c r="C148" t="str">
-        <v>https://rategain.com/blog/indias-festive-season-travel-outlook/</v>
+        <v>https://rategain.com/blog/humans-of-rategain-mark-haywood/</v>
       </c>
       <c r="D148" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Productivity For The Front Desk: What Has Changed</v>
+        <v>India’s Festive Season Travel Outlook</v>
       </c>
       <c r="B149" t="str">
-        <v>SEPTEMBER 27, 2022</v>
+        <v>OCTOBER 3, 2022</v>
       </c>
       <c r="C149" t="str">
-        <v>https://rategain.com/blog/productivity-for-the-front-desk-what-has-changed/</v>
+        <v>https://rategain.com/blog/indias-festive-season-travel-outlook/</v>
       </c>
       <c r="D149" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>How Can Scoring Content Help Hotels Drive More Bookings</v>
+        <v>Productivity For The Front Desk: What Has Changed</v>
       </c>
       <c r="B150" t="str">
-        <v>SEPTEMBER 20, 2022</v>
+        <v>SEPTEMBER 27, 2022</v>
       </c>
       <c r="C150" t="str">
-        <v>https://rategain.com/blog/how-can-scoring-content-help-hotels-drive-more-bookings/</v>
+        <v>https://rategain.com/blog/productivity-for-the-front-desk-what-has-changed/</v>
       </c>
       <c r="D150" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>New Data Sources To Help Commercial Teams Make Better Decisions</v>
+        <v>How Can Scoring Content Help Hotels Drive More Bookings</v>
       </c>
       <c r="B151" t="str">
         <v>SEPTEMBER 20, 2022</v>
       </c>
       <c r="C151" t="str">
-        <v>https://rategain.com/blog/new-data-sources-to-help-commercial-teams-make-better-decisions/</v>
+        <v>https://rategain.com/blog/how-can-scoring-content-help-hotels-drive-more-bookings/</v>
       </c>
       <c r="D151" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hotel Online Bookings Can Be More Profitable</v>
+        <v>New Data Sources To Help Commercial Teams Make Better Decisions</v>
       </c>
       <c r="B152" t="str">
         <v>SEPTEMBER 20, 2022</v>
       </c>
       <c r="C152" t="str">
-        <v>https://rategain.com/blog/hotel-online-bookings-can-be-more-profitable/</v>
+        <v>https://rategain.com/blog/new-data-sources-to-help-commercial-teams-make-better-decisions/</v>
       </c>
       <c r="D152" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2532,27 +2532,27 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Bridging Silos in Commercial Teams Post Pandemic</v>
+        <v>Hotel Online Bookings Can Be More Profitable</v>
       </c>
       <c r="B153" t="str">
-        <v>AUGUST 25, 2022</v>
+        <v>SEPTEMBER 20, 2022</v>
       </c>
       <c r="C153" t="str">
-        <v>https://rategain.com/blog/bridging-silos-in-commercial-teams-post-pandemic/</v>
+        <v>https://rategain.com/blog/hotel-online-bookings-can-be-more-profitable/</v>
       </c>
       <c r="D153" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Data Transparency: The New Way to Collaborate in Commercial Teams</v>
+        <v>Bridging Silos in Commercial Teams Post Pandemic</v>
       </c>
       <c r="B154" t="str">
         <v>AUGUST 25, 2022</v>
       </c>
       <c r="C154" t="str">
-        <v>https://rategain.com/blog/data-transparency-the-new-way-to-collaborate-in-commercial-teams/</v>
+        <v>https://rategain.com/blog/bridging-silos-in-commercial-teams-post-pandemic/</v>
       </c>
       <c r="D154" t="str">
         <v xml:space="preserve"> 7</v>
@@ -2560,55 +2560,55 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Are Middle East Hoteliers Ready for the Next Big Shift?</v>
+        <v>Data Transparency: The New Way to Collaborate in Commercial Teams</v>
       </c>
       <c r="B155" t="str">
-        <v>JULY 18, 2022</v>
+        <v>AUGUST 25, 2022</v>
       </c>
       <c r="C155" t="str">
-        <v>https://rategain.com/blog/are-middle-east-hoteliers-ready-for-the-next-big-shift/</v>
+        <v>https://rategain.com/blog/data-transparency-the-new-way-to-collaborate-in-commercial-teams/</v>
       </c>
       <c r="D155" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Artificial Intelligence in the Hospitality Industry : The Future</v>
+        <v>Are Middle East Hoteliers Ready for the Next Big Shift?</v>
       </c>
       <c r="B156" t="str">
-        <v>JULY 13, 2022</v>
+        <v>JULY 18, 2022</v>
       </c>
       <c r="C156" t="str">
-        <v>https://rategain.com/blog/artificial-intelligence-future-of-hospitality-industry/</v>
+        <v>https://rategain.com/blog/are-middle-east-hoteliers-ready-for-the-next-big-shift/</v>
       </c>
       <c r="D156" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>What is Engage-AI? What are the benefits of using Engage-AI?</v>
+        <v>Artificial Intelligence in the Hospitality Industry : The Future</v>
       </c>
       <c r="B157" t="str">
-        <v>JULY 7, 2022</v>
+        <v>JULY 13, 2022</v>
       </c>
       <c r="C157" t="str">
-        <v>https://rategain.com/blog/all-about-engage-ai/</v>
+        <v>https://rategain.com/blog/artificial-intelligence-future-of-hospitality-industry/</v>
       </c>
       <c r="D157" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Enjoy Greater Conversions by Offering Mobile Rates to your Prospective Customers</v>
+        <v>What is Engage-AI? What are the benefits of using Engage-AI?</v>
       </c>
       <c r="B158" t="str">
-        <v>JUNE 30, 2022</v>
+        <v>JULY 7, 2022</v>
       </c>
       <c r="C158" t="str">
-        <v>https://rategain.com/blog/enjoy-greater-conversions-by-offering-mobile-rates-to-your-prospective-customers/</v>
+        <v>https://rategain.com/blog/all-about-engage-ai/</v>
       </c>
       <c r="D158" t="str">
         <v xml:space="preserve"> 7</v>
@@ -2616,27 +2616,27 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Improving Business by Offering Country Rates to Prospective Customers</v>
+        <v>Enjoy Greater Conversions by Offering Mobile Rates to your Prospective Customers</v>
       </c>
       <c r="B159" t="str">
-        <v>JUNE 21, 2022</v>
+        <v>JUNE 30, 2022</v>
       </c>
       <c r="C159" t="str">
-        <v>https://rategain.com/blog/improving-business-by-offering-country-rates-to-prospective-customers/</v>
+        <v>https://rategain.com/blog/enjoy-greater-conversions-by-offering-mobile-rates-to-your-prospective-customers/</v>
       </c>
       <c r="D159" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>The Role of Metasearch in Pandemic Recovery</v>
+        <v>Improving Business by Offering Country Rates to Prospective Customers</v>
       </c>
       <c r="B160" t="str">
-        <v>MAY 31, 2022</v>
+        <v>JUNE 21, 2022</v>
       </c>
       <c r="C160" t="str">
-        <v>https://rategain.com/blog/the-role-of-metasearch-in-pandemic-recovery/</v>
+        <v>https://rategain.com/blog/improving-business-by-offering-country-rates-to-prospective-customers/</v>
       </c>
       <c r="D160" t="str">
         <v xml:space="preserve"> 6</v>
@@ -2644,27 +2644,27 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Why Forward-looking Demand Intelligence is all the More Important for a Destination and it's DMO Today?</v>
+        <v>The Role of Metasearch in Pandemic Recovery</v>
       </c>
       <c r="B161" t="str">
-        <v>MARCH 31, 2022</v>
+        <v>MAY 31, 2022</v>
       </c>
       <c r="C161" t="str">
-        <v>https://rategain.com/blog/dmo-destination-marketing-intelligence-strategy/</v>
+        <v>https://rategain.com/blog/the-role-of-metasearch-in-pandemic-recovery/</v>
       </c>
       <c r="D161" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>How to Become a Genius and Drive-up Hotel Visibility and Occupancy Rates!</v>
+        <v>Why Forward-looking Demand Intelligence is all the More Important for a Destination and it's DMO Today?</v>
       </c>
       <c r="B162" t="str">
-        <v>MARCH 10, 2022</v>
+        <v>MARCH 31, 2022</v>
       </c>
       <c r="C162" t="str">
-        <v>https://rategain.com/blog/how-to-become-a-genius-and-drive-up-hotel-visibility-and-occupancy-rates/</v>
+        <v>https://rategain.com/blog/dmo-destination-marketing-intelligence-strategy/</v>
       </c>
       <c r="D162" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2672,153 +2672,153 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Airline Traveler Forecast: Can it help in anticipating demand better?</v>
+        <v>How to Become a Genius and Drive-up Hotel Visibility and Occupancy Rates!</v>
       </c>
       <c r="B163" t="str">
-        <v>MARCH 9, 2022</v>
+        <v>MARCH 10, 2022</v>
       </c>
       <c r="C163" t="str">
-        <v>https://rategain.com/blog/airline-traveller-demand-forecast/</v>
+        <v>https://rategain.com/blog/how-to-become-a-genius-and-drive-up-hotel-visibility-and-occupancy-rates/</v>
       </c>
       <c r="D163" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>How can User Experience Help Revenue Managers? Ask AirGain</v>
+        <v>Airline Traveler Forecast: Can it help in anticipating demand better?</v>
       </c>
       <c r="B164" t="str">
-        <v>JANUARY 13, 2022</v>
+        <v>MARCH 9, 2022</v>
       </c>
       <c r="C164" t="str">
-        <v>https://rategain.com/blog/how-can-user-experience-help-revenue-managers/</v>
+        <v>https://rategain.com/blog/airline-traveller-demand-forecast/</v>
       </c>
       <c r="D164" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>The Travel Manifesto for 2022</v>
+        <v>How can User Experience Help Revenue Managers? Ask AirGain</v>
       </c>
       <c r="B165" t="str">
-        <v>DECEMBER 24, 2021</v>
+        <v>JANUARY 13, 2022</v>
       </c>
       <c r="C165" t="str">
-        <v>https://rategain.com/blog/the-travel-manifesto-for-2022/</v>
+        <v>https://rategain.com/blog/how-can-user-experience-help-revenue-managers/</v>
       </c>
       <c r="D165" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Marketing Technology in a Data-Driven Era</v>
+        <v>The Travel Manifesto for 2022</v>
       </c>
       <c r="B166" t="str">
-        <v>OCTOBER 22, 2021</v>
+        <v>DECEMBER 24, 2021</v>
       </c>
       <c r="C166" t="str">
-        <v>https://rategain.com/blog/marketing-technology-in-a-data-driven-era/</v>
+        <v>https://rategain.com/blog/the-travel-manifesto-for-2022/</v>
       </c>
       <c r="D166" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Usability and Accessibility – How they are making AirGain smarter for you!</v>
+        <v>Marketing Technology in a Data-Driven Era</v>
       </c>
       <c r="B167" t="str">
-        <v>OCTOBER 5, 2021</v>
+        <v>OCTOBER 22, 2021</v>
       </c>
       <c r="C167" t="str">
-        <v>https://rategain.com/blog/usability-and-accessibility-how-they-are-making-airgain-smarter-for-you/</v>
+        <v>https://rategain.com/blog/marketing-technology-in-a-data-driven-era/</v>
       </c>
       <c r="D167" t="str">
-        <v xml:space="preserve"> 10</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Building a Culture of Empowerment</v>
+        <v>Usability and Accessibility – How they are making AirGain smarter for you!</v>
       </c>
       <c r="B168" t="str">
-        <v>OCTOBER 4, 2021</v>
+        <v>OCTOBER 5, 2021</v>
       </c>
       <c r="C168" t="str">
-        <v>https://rategain.com/blog/building-a-culture-of-empowerment/</v>
+        <v>https://rategain.com/blog/usability-and-accessibility-how-they-are-making-airgain-smarter-for-you/</v>
       </c>
       <c r="D168" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Is The Future Of Forecasting Clear For Revenue Managers?</v>
+        <v>Building a Culture of Empowerment</v>
       </c>
       <c r="B169" t="str">
-        <v>SEPTEMBER 29, 2021</v>
+        <v>OCTOBER 4, 2021</v>
       </c>
       <c r="C169" t="str">
-        <v>https://rategain.com/blog/is-the-future-of-forecasting-clear-for-revenue-managers/</v>
+        <v>https://rategain.com/blog/building-a-culture-of-empowerment/</v>
       </c>
       <c r="D169" t="str">
-        <v xml:space="preserve"> 10</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Upcoming Launch: The New Room – Rate Management API will Help Distribution Teams Directly and Quickly Create/Retrieve a Multitude of Room Rate Types from RezGain</v>
+        <v>Is The Future Of Forecasting Clear For Revenue Managers?</v>
       </c>
       <c r="B170" t="str">
-        <v>SEPTEMBER 28, 2021</v>
+        <v>SEPTEMBER 29, 2021</v>
       </c>
       <c r="C170" t="str">
-        <v>https://rategain.com/blog/directly-manage-rooms-and-rates-from-rategains-channel-manager-ui-to-booking-com/</v>
+        <v>https://rategain.com/blog/is-the-future-of-forecasting-clear-for-revenue-managers/</v>
       </c>
       <c r="D170" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>How Revenue Managers Can Be Future Ready For The Next Crisis</v>
+        <v>Upcoming Launch: The New Room – Rate Management API will Help Distribution Teams Directly and Quickly Create/Retrieve a Multitude of Room Rate Types from RezGain</v>
       </c>
       <c r="B171" t="str">
-        <v>SEPTEMBER 23, 2021</v>
+        <v>SEPTEMBER 28, 2021</v>
       </c>
       <c r="C171" t="str">
-        <v>https://rategain.com/blog/how-revenue-managers-can-be-future-ready-for-the-next-crisis/</v>
+        <v>https://rategain.com/blog/directly-manage-rooms-and-rates-from-rategains-channel-manager-ui-to-booking-com/</v>
       </c>
       <c r="D171" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>How Can New Airlines Thrive the Post- Covid World</v>
+        <v>How Revenue Managers Can Be Future Ready For The Next Crisis</v>
       </c>
       <c r="B172" t="str">
-        <v>SEPTEMBER 3, 2021</v>
+        <v>SEPTEMBER 23, 2021</v>
       </c>
       <c r="C172" t="str">
-        <v>https://rategain.com/blog/how-can-new-airlines-thrive-the-post-covid-world/</v>
+        <v>https://rategain.com/blog/how-revenue-managers-can-be-future-ready-for-the-next-crisis/</v>
       </c>
       <c r="D172" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Making Your Hotel Channel Manager Adapt to Your Day</v>
+        <v>How Can New Airlines Thrive the Post- Covid World</v>
       </c>
       <c r="B173" t="str">
-        <v>SEPTEMBER 1, 2021</v>
+        <v>SEPTEMBER 3, 2021</v>
       </c>
       <c r="C173" t="str">
-        <v>https://rategain.com/blog/making-your-hotel-channel-manager-adapt-to-your-day/</v>
+        <v>https://rategain.com/blog/how-can-new-airlines-thrive-the-post-covid-world/</v>
       </c>
       <c r="D173" t="str">
         <v xml:space="preserve"> 4</v>
@@ -2826,69 +2826,69 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>CarGain Canvas: Analytics that give you 360 degree control over your market</v>
+        <v>Making Your Hotel Channel Manager Adapt to Your Day</v>
       </c>
       <c r="B174" t="str">
         <v>SEPTEMBER 1, 2021</v>
       </c>
       <c r="C174" t="str">
-        <v>https://rategain.com/blog/cargain-canvas-analytics-that-give-you-360-degree-control-over-your-market/</v>
+        <v>https://rategain.com/blog/making-your-hotel-channel-manager-adapt-to-your-day/</v>
       </c>
       <c r="D174" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>What Signals is the Summer of 2021 Giving Car Rentals?</v>
+        <v>CarGain Canvas: Analytics that give you 360 degree control over your market</v>
       </c>
       <c r="B175" t="str">
-        <v>JULY 8, 2021</v>
+        <v>SEPTEMBER 1, 2021</v>
       </c>
       <c r="C175" t="str">
-        <v>https://rategain.com/blog/what-signals-is-the-summer-of-2021-giving-car-rentals/</v>
+        <v>https://rategain.com/blog/cargain-canvas-analytics-that-give-you-360-degree-control-over-your-market/</v>
       </c>
       <c r="D175" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>WHAT ARE YOUR PRONOUNS?</v>
+        <v>What Signals is the Summer of 2021 Giving Car Rentals?</v>
       </c>
       <c r="B176" t="str">
-        <v>JUNE 25, 2021</v>
+        <v>JULY 8, 2021</v>
       </c>
       <c r="C176" t="str">
-        <v>https://rategain.com/blog/what-are-your-pronouns/</v>
+        <v>https://rategain.com/blog/what-signals-is-the-summer-of-2021-giving-car-rentals/</v>
       </c>
       <c r="D176" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Bringing More Speed and Agility to Airline Pricing for the Post-COVID Revenue Manager</v>
+        <v>WHAT ARE YOUR PRONOUNS?</v>
       </c>
       <c r="B177" t="str">
-        <v>JUNE 15, 2021</v>
+        <v>JUNE 25, 2021</v>
       </c>
       <c r="C177" t="str">
-        <v>https://rategain.com/blog/bringing-more-speed-and-agility-to-airline-pricing-for-the-post-covid-revenue-manager/</v>
+        <v>https://rategain.com/blog/what-are-your-pronouns/</v>
       </c>
       <c r="D177" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>The Current State of Airline Pricing post-Covid</v>
+        <v>Bringing More Speed and Agility to Airline Pricing for the Post-COVID Revenue Manager</v>
       </c>
       <c r="B178" t="str">
-        <v>MAY 3, 2021</v>
+        <v>JUNE 15, 2021</v>
       </c>
       <c r="C178" t="str">
-        <v>https://rategain.com/blog/the-current-state-of-airline-pricing-post-covid/</v>
+        <v>https://rategain.com/blog/bringing-more-speed-and-agility-to-airline-pricing-for-the-post-covid-revenue-manager/</v>
       </c>
       <c r="D178" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>How can hoteliers get 2021 right with a solid pricing strategy as volatility in recovery persists</v>
+        <v>The Current State of Airline Pricing post-Covid</v>
       </c>
       <c r="B179" t="str">
         <v>MAY 3, 2021</v>
       </c>
       <c r="C179" t="str">
-        <v>https://rategain.com/blog/how-can-hoteliers-get-2021-right-with-a-solid-pricing-strategy-as-volatility-in-recovery-persists/</v>
+        <v>https://rategain.com/blog/the-current-state-of-airline-pricing-post-covid/</v>
       </c>
       <c r="D179" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Why We Must Tell a Visual Data Story</v>
+        <v>How can hoteliers get 2021 right with a solid pricing strategy as volatility in recovery persists</v>
       </c>
       <c r="B180" t="str">
-        <v>APRIL 30, 2021</v>
+        <v>MAY 3, 2021</v>
       </c>
       <c r="C180" t="str">
-        <v>https://rategain.com/blog/why-we-must-tell-a-visual-data-story/</v>
+        <v>https://rategain.com/blog/how-can-hoteliers-get-2021-right-with-a-solid-pricing-strategy-as-volatility-in-recovery-persists/</v>
       </c>
       <c r="D180" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Airlines Revenue Management Checklist for 2021</v>
+        <v>Why We Must Tell a Visual Data Story</v>
       </c>
       <c r="B181" t="str">
-        <v>APRIL 29, 2021</v>
+        <v>APRIL 30, 2021</v>
       </c>
       <c r="C181" t="str">
-        <v>https://rategain.com/blog/airlines-revenue-management-checklist-for-2021/</v>
+        <v>https://rategain.com/blog/why-we-must-tell-a-visual-data-story/</v>
       </c>
       <c r="D181" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2938,27 +2938,27 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Cap on Wedding Guests Might Pinch, But It's a Necessary Evil</v>
+        <v>Airlines Revenue Management Checklist for 2021</v>
       </c>
       <c r="B182" t="str">
-        <v>DECEMBER 25, 2020</v>
+        <v>APRIL 29, 2021</v>
       </c>
       <c r="C182" t="str">
-        <v>https://rategain.com/blog/cap-on-wedding-guests-might-pinch-but-its-a-necessary-evil/</v>
+        <v>https://rategain.com/blog/airlines-revenue-management-checklist-for-2021/</v>
       </c>
       <c r="D182" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>We have been Profitable Since Inception: Yogeesh Chandra- Global Head of Corporate Development, RateGain</v>
+        <v>Cap on Wedding Guests Might Pinch, But It's a Necessary Evil</v>
       </c>
       <c r="B183" t="str">
-        <v>DECEMBER 22, 2020</v>
+        <v>DECEMBER 25, 2020</v>
       </c>
       <c r="C183" t="str">
-        <v>https://rategain.com/blog/we-have-been-profitable-since-inception-yogeesh-chandra-global-head-of-corporate-development-rategain/</v>
+        <v>https://rategain.com/blog/cap-on-wedding-guests-might-pinch-but-its-a-necessary-evil/</v>
       </c>
       <c r="D183" t="str">
         <v xml:space="preserve"> 3</v>
@@ -2966,27 +2966,27 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Some Employees are Getting a New Job…At Their Old Job</v>
+        <v>We have been Profitable Since Inception: Yogeesh Chandra- Global Head of Corporate Development, RateGain</v>
       </c>
       <c r="B184" t="str">
-        <v>DECEMBER 21, 2020</v>
+        <v>DECEMBER 22, 2020</v>
       </c>
       <c r="C184" t="str">
-        <v>https://rategain.com/blog/some-employees-are-getting-a-new-jobat-their-old-job/</v>
+        <v>https://rategain.com/blog/we-have-been-profitable-since-inception-yogeesh-chandra-global-head-of-corporate-development-rategain/</v>
       </c>
       <c r="D184" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Visioning The Post-COVID Era In Revenue Management</v>
+        <v>Some Employees are Getting a New Job…At Their Old Job</v>
       </c>
       <c r="B185" t="str">
         <v>DECEMBER 21, 2020</v>
       </c>
       <c r="C185" t="str">
-        <v>https://rategain.com/blog/visioning-the-post-covid-era-in-revenue-management/</v>
+        <v>https://rategain.com/blog/some-employees-are-getting-a-new-jobat-their-old-job/</v>
       </c>
       <c r="D185" t="str">
         <v xml:space="preserve"> 5</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>50% Rise in Bookings Not Enough for India to Catch Up With Global Recovery</v>
+        <v>Visioning The Post-COVID Era In Revenue Management</v>
       </c>
       <c r="B186" t="str">
         <v>DECEMBER 21, 2020</v>
       </c>
       <c r="C186" t="str">
-        <v>https://rategain.com/blog/50-rise-in-bookings-not-enough-for-india-to-catch-up-with-global-recovery/</v>
+        <v>https://rategain.com/blog/visioning-the-post-covid-era-in-revenue-management/</v>
       </c>
       <c r="D186" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Tech Skills That can Rebuild the Travel Industry</v>
+        <v>50% Rise in Bookings Not Enough for India to Catch Up With Global Recovery</v>
       </c>
       <c r="B187" t="str">
-        <v>DECEMBER 20, 2020</v>
+        <v>DECEMBER 21, 2020</v>
       </c>
       <c r="C187" t="str">
-        <v>https://rategain.com/blog/tech-skills-that-can-rebuild-the-travel-industry/</v>
+        <v>https://rategain.com/blog/50-rise-in-bookings-not-enough-for-india-to-catch-up-with-global-recovery/</v>
       </c>
       <c r="D187" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3022,27 +3022,27 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>After China can 'Revenge Travel' Happen in India?</v>
+        <v>Tech Skills That can Rebuild the Travel Industry</v>
       </c>
       <c r="B188" t="str">
-        <v>DECEMBER 18, 2020</v>
+        <v>DECEMBER 20, 2020</v>
       </c>
       <c r="C188" t="str">
-        <v>https://rategain.com/blog/after-china-can-revenge-travel-happen-in-india/</v>
+        <v>https://rategain.com/blog/tech-skills-that-can-rebuild-the-travel-industry/</v>
       </c>
       <c r="D188" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Travel &amp; Hospitality Sector Will Take 12-15 Months To Cross Pre-covid Level Hiring Figures: Industry Leaders</v>
+        <v>After China can 'Revenge Travel' Happen in India?</v>
       </c>
       <c r="B189" t="str">
-        <v>DECEMBER 16, 2020</v>
+        <v>DECEMBER 18, 2020</v>
       </c>
       <c r="C189" t="str">
-        <v>https://rategain.com/blog/travel-hospitality-sector-will-take-12-15-months-to-cross-pre-covid-level-hiring-figures-industry-leaders/</v>
+        <v>https://rategain.com/blog/after-china-can-revenge-travel-happen-in-india/</v>
       </c>
       <c r="D189" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>What Hotels Need to Know About the Staycation Boom</v>
+        <v>Travel &amp; Hospitality Sector Will Take 12-15 Months To Cross Pre-covid Level Hiring Figures: Industry Leaders</v>
       </c>
       <c r="B190" t="str">
         <v>DECEMBER 16, 2020</v>
       </c>
       <c r="C190" t="str">
-        <v>https://rategain.com/blog/what-hotels-need-to-know-about-the-staycation-boom/</v>
+        <v>https://rategain.com/blog/travel-hospitality-sector-will-take-12-15-months-to-cross-pre-covid-level-hiring-figures-industry-leaders/</v>
       </c>
       <c r="D190" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3064,27 +3064,27 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Here’s How Hoteliers Can Attract New Travelers in the Post-COVID Era</v>
+        <v>What Hotels Need to Know About the Staycation Boom</v>
       </c>
       <c r="B191" t="str">
         <v>DECEMBER 16, 2020</v>
       </c>
       <c r="C191" t="str">
-        <v>https://rategain.com/blog/heres-how-hoteliers-can-attract-new-travelers-in-the-post-covid-era/</v>
+        <v>https://rategain.com/blog/what-hotels-need-to-know-about-the-staycation-boom/</v>
       </c>
       <c r="D191" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>How Airline Revenue Management and Pricing Teams Respond to Revenue Volatility?</v>
+        <v>Here’s How Hoteliers Can Attract New Travelers in the Post-COVID Era</v>
       </c>
       <c r="B192" t="str">
-        <v>DECEMBER 15, 2020</v>
+        <v>DECEMBER 16, 2020</v>
       </c>
       <c r="C192" t="str">
-        <v>https://rategain.com/blog/how-airline-revenue-management-and-pricing-teams-respond-to-revenue-volatility/</v>
+        <v>https://rategain.com/blog/heres-how-hoteliers-can-attract-new-travelers-in-the-post-covid-era/</v>
       </c>
       <c r="D192" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Revenue Volatility in Airlines is Here to Stay: What can Revenue &amp; Pricing Teams do About it?</v>
+        <v>How Airline Revenue Management and Pricing Teams Respond to Revenue Volatility?</v>
       </c>
       <c r="B193" t="str">
         <v>DECEMBER 15, 2020</v>
       </c>
       <c r="C193" t="str">
-        <v>https://rategain.com/blog/revenue-volatility-in-airlines-is-here-to-stay-what-can-revenue-pricing-teams-do-about-it/</v>
+        <v>https://rategain.com/blog/how-airline-revenue-management-and-pricing-teams-respond-to-revenue-volatility/</v>
       </c>
       <c r="D193" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>These New Car Rental Subscription Programs Will Get You There</v>
+        <v>Revenue Volatility in Airlines is Here to Stay: What can Revenue &amp; Pricing Teams do About it?</v>
       </c>
       <c r="B194" t="str">
         <v>DECEMBER 15, 2020</v>
       </c>
       <c r="C194" t="str">
-        <v>https://rategain.com/blog/these-new-car-rental-subscription-programs-will-get-you-there/</v>
+        <v>https://rategain.com/blog/revenue-volatility-in-airlines-is-here-to-stay-what-can-revenue-pricing-teams-do-about-it/</v>
       </c>
       <c r="D194" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3120,27 +3120,27 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Pardon me, your politics are showing</v>
+        <v>These New Car Rental Subscription Programs Will Get You There</v>
       </c>
       <c r="B195" t="str">
-        <v>DECEMBER 12, 2020</v>
+        <v>DECEMBER 15, 2020</v>
       </c>
       <c r="C195" t="str">
-        <v>https://rategain.com/blog/pardon-me-your-politics-are-showing/</v>
+        <v>https://rategain.com/blog/these-new-car-rental-subscription-programs-will-get-you-there/</v>
       </c>
       <c r="D195" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>New Deal Europe Weekly Update on Tourism to the Balkan Region, Week 24</v>
+        <v>Pardon me, your politics are showing</v>
       </c>
       <c r="B196" t="str">
         <v>DECEMBER 12, 2020</v>
       </c>
       <c r="C196" t="str">
-        <v>https://rategain.com/blog/new-deal-europe-weekly-update-on-tourism-to-the-balkan-region-week-24/</v>
+        <v>https://rategain.com/blog/pardon-me-your-politics-are-showing/</v>
       </c>
       <c r="D196" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3148,69 +3148,69 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>See the Green Shoots of Recovery with Smart Distribution’s latest addition “Future Demand”</v>
+        <v>New Deal Europe Weekly Update on Tourism to the Balkan Region, Week 24</v>
       </c>
       <c r="B197" t="str">
-        <v>OCTOBER 21, 2020</v>
+        <v>DECEMBER 12, 2020</v>
       </c>
       <c r="C197" t="str">
-        <v>https://rategain.com/blog/see-the-green-shoots-of-recovery-with-smart-distributions-latest-addition-future-demand/</v>
+        <v>https://rategain.com/blog/new-deal-europe-weekly-update-on-tourism-to-the-balkan-region-week-24/</v>
       </c>
       <c r="D197" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Seven Tactics to Keep your Hotel's Distribution Healthy and Highly Profitable</v>
+        <v>See the Green Shoots of Recovery with Smart Distribution’s latest addition “Future Demand”</v>
       </c>
       <c r="B198" t="str">
-        <v>OCTOBER 7, 2020</v>
+        <v>OCTOBER 21, 2020</v>
       </c>
       <c r="C198" t="str">
-        <v>https://rategain.com/blog/seven-tactics-to-keep-your-hotels-distribution-healthy-and-highly-profitable/</v>
+        <v>https://rategain.com/blog/see-the-green-shoots-of-recovery-with-smart-distributions-latest-addition-future-demand/</v>
       </c>
       <c r="D198" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Bespoke Strategies for Opening the Doors to the European Market</v>
+        <v>Seven Tactics to Keep your Hotel's Distribution Healthy and Highly Profitable</v>
       </c>
       <c r="B199" t="str">
-        <v>AUGUST 25, 2020</v>
+        <v>OCTOBER 7, 2020</v>
       </c>
       <c r="C199" t="str">
-        <v>https://rategain.com/blog/bespoke-strategies-for-opening-the-doors-to-the-european-market/</v>
+        <v>https://rategain.com/blog/seven-tactics-to-keep-your-hotels-distribution-healthy-and-highly-profitable/</v>
       </c>
       <c r="D199" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>A New Era of Exploration is Coming to Hoteliers. Stay Tuned!</v>
+        <v>Bespoke Strategies for Opening the Doors to the European Market</v>
       </c>
       <c r="B200" t="str">
-        <v>AUGUST 20, 2020</v>
+        <v>AUGUST 25, 2020</v>
       </c>
       <c r="C200" t="str">
-        <v>https://rategain.com/blog/a-new-era-of-exploration-is-coming-to-hoteliers-stay-tuned/</v>
+        <v>https://rategain.com/blog/bespoke-strategies-for-opening-the-doors-to-the-european-market/</v>
       </c>
       <c r="D200" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Perspectives with Saurabh Prakash: How Hotels Can Get Digital Right for Recovery</v>
+        <v>A New Era of Exploration is Coming to Hoteliers. Stay Tuned!</v>
       </c>
       <c r="B201" t="str">
-        <v>AUGUST 14, 2020</v>
+        <v>AUGUST 20, 2020</v>
       </c>
       <c r="C201" t="str">
-        <v>https://rategain.com/blog/perspectives-with-saurabh-prakash-how-hotels-can-get-digital-right-for-recovery/</v>
+        <v>https://rategain.com/blog/a-new-era-of-exploration-is-coming-to-hoteliers-stay-tuned/</v>
       </c>
       <c r="D201" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3218,27 +3218,27 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Perspectives with Debojo: How Survival Became A Success Metric at SpiceJet</v>
+        <v>Perspectives with Saurabh Prakash: How Hotels Can Get Digital Right for Recovery</v>
       </c>
       <c r="B202" t="str">
-        <v>JULY 22, 2020</v>
+        <v>AUGUST 14, 2020</v>
       </c>
       <c r="C202" t="str">
-        <v>https://rategain.com/blog/perspectives-with-debojo-how-survival-became-a-success-metric-at-spicejet/</v>
+        <v>https://rategain.com/blog/perspectives-with-saurabh-prakash-how-hotels-can-get-digital-right-for-recovery/</v>
       </c>
       <c r="D202" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Strategies for Hoteliers to Get Back to Business for UK Market</v>
+        <v>Perspectives with Debojo: How Survival Became A Success Metric at SpiceJet</v>
       </c>
       <c r="B203" t="str">
-        <v>JULY 20, 2020</v>
+        <v>JULY 22, 2020</v>
       </c>
       <c r="C203" t="str">
-        <v>https://rategain.com/blog/strategies-for-hoteliers-to-get-back-to-business-for-uk-market/</v>
+        <v>https://rategain.com/blog/perspectives-with-debojo-how-survival-became-a-success-metric-at-spicejet/</v>
       </c>
       <c r="D203" t="str">
         <v xml:space="preserve"> 6</v>
@@ -3246,69 +3246,69 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Strategies for Hoteliers to Get Back to Business for Europe Market</v>
+        <v>Strategies for Hoteliers to Get Back to Business for UK Market</v>
       </c>
       <c r="B204" t="str">
         <v>JULY 20, 2020</v>
       </c>
       <c r="C204" t="str">
-        <v>https://rategain.com/blog/strategies-for-hoteliers-to-get-back-to-business-for-europe-market/</v>
+        <v>https://rategain.com/blog/strategies-for-hoteliers-to-get-back-to-business-for-uk-market/</v>
       </c>
       <c r="D204" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Perspectives #8 with Ajay Bakaya, Managing Director, Sarovar Hotels and Resorts</v>
+        <v>Strategies for Hoteliers to Get Back to Business for Europe Market</v>
       </c>
       <c r="B205" t="str">
-        <v>JULY 14, 2020</v>
+        <v>JULY 20, 2020</v>
       </c>
       <c r="C205" t="str">
-        <v>https://rategain.com/blog/perspectives-8-with-ajay-bakaya-managing-director-sarovar-hotels-and-resorts/</v>
+        <v>https://rategain.com/blog/strategies-for-hoteliers-to-get-back-to-business-for-europe-market/</v>
       </c>
       <c r="D205" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Re-Taking The Skies : What Can Commercial Teams Do To Gear Up For A Full Return Of Airline Travel In The New Normal</v>
+        <v>Perspectives #8 with Ajay Bakaya, Managing Director, Sarovar Hotels and Resorts</v>
       </c>
       <c r="B206" t="str">
-        <v>JUNE 30, 2020</v>
+        <v>JULY 14, 2020</v>
       </c>
       <c r="C206" t="str">
-        <v>https://rategain.com/blog/re-taking-the-skies-what-can-commercial-teams-do-to-gear-up-for-a-full-return-of-airline-travel-in-the-new-normal/</v>
+        <v>https://rategain.com/blog/perspectives-8-with-ajay-bakaya-managing-director-sarovar-hotels-and-resorts/</v>
       </c>
       <c r="D206" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>React to Competitive Prices in Real Time with RateGain’s OPTIMA MarketDrone</v>
+        <v>Re-Taking The Skies : What Can Commercial Teams Do To Gear Up For A Full Return Of Airline Travel In The New Normal</v>
       </c>
       <c r="B207" t="str">
-        <v>JUNE 15, 2020</v>
+        <v>JUNE 30, 2020</v>
       </c>
       <c r="C207" t="str">
-        <v>https://rategain.com/blog/react-to-competitive-prices-in-real-time-with-rategains-optima-marketdrone/</v>
+        <v>https://rategain.com/blog/re-taking-the-skies-what-can-commercial-teams-do-to-gear-up-for-a-full-return-of-airline-travel-in-the-new-normal/</v>
       </c>
       <c r="D207" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Watch Your Language! Content in the New Hospitality Landscape</v>
+        <v>React to Competitive Prices in Real Time with RateGain’s OPTIMA MarketDrone</v>
       </c>
       <c r="B208" t="str">
-        <v>JUNE 2, 2020</v>
+        <v>JUNE 15, 2020</v>
       </c>
       <c r="C208" t="str">
-        <v>https://rategain.com/blog/watch-your-language-content-in-the-new-hospitality-landscape/</v>
+        <v>https://rategain.com/blog/react-to-competitive-prices-in-real-time-with-rategains-optima-marketdrone/</v>
       </c>
       <c r="D208" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Keeping Lights on During the Current COVID Crisis!</v>
+        <v>Watch Your Language! Content in the New Hospitality Landscape</v>
       </c>
       <c r="B209" t="str">
-        <v>MAY 5, 2020</v>
+        <v>JUNE 2, 2020</v>
       </c>
       <c r="C209" t="str">
-        <v>https://rategain.com/blog/keeping-lights-on-during-the-current-covid-crisis/</v>
+        <v>https://rategain.com/blog/watch-your-language-content-in-the-new-hospitality-landscape/</v>
       </c>
       <c r="D209" t="str">
         <v xml:space="preserve"> 4</v>
@@ -3330,111 +3330,111 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Hoteliers, Spot New Markets to Create New Revenues in a Post-COVID 19 World</v>
+        <v>Keeping Lights on During the Current COVID Crisis!</v>
       </c>
       <c r="B210" t="str">
-        <v>APRIL 23, 2020</v>
+        <v>MAY 5, 2020</v>
       </c>
       <c r="C210" t="str">
-        <v>https://rategain.com/blog/hoteliers-spot-new-markets-to-create-new-revenues-in-a-post-covid-19-world/</v>
+        <v>https://rategain.com/blog/keeping-lights-on-during-the-current-covid-crisis/</v>
       </c>
       <c r="D210" t="str">
-        <v xml:space="preserve"> 11</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Social Media During COVID-19: Tourism Brands That Got It Right</v>
+        <v>Hoteliers, Spot New Markets to Create New Revenues in a Post-COVID 19 World</v>
       </c>
       <c r="B211" t="str">
-        <v>APRIL 21, 2020</v>
+        <v>APRIL 23, 2020</v>
       </c>
       <c r="C211" t="str">
-        <v>https://rategain.com/blog/social-media-during-covid-19-tourism-brands-that-got-it-right/</v>
+        <v>https://rategain.com/blog/hoteliers-spot-new-markets-to-create-new-revenues-in-a-post-covid-19-world/</v>
       </c>
       <c r="D211" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>We Are Bracing Ourselves: Are You?</v>
+        <v>Social Media During COVID-19: Tourism Brands That Got It Right</v>
       </c>
       <c r="B212" t="str">
-        <v>MARCH 20, 2020</v>
+        <v>APRIL 21, 2020</v>
       </c>
       <c r="C212" t="str">
-        <v>https://rategain.com/blog/have-we-braced-ourselves/</v>
+        <v>https://rategain.com/blog/social-media-during-covid-19-tourism-brands-that-got-it-right/</v>
       </c>
       <c r="D212" t="str">
-        <v xml:space="preserve"> 12</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>How to Capture Rate Integrity Issues in the Most Simplified Way</v>
+        <v>We Are Bracing Ourselves: Are You?</v>
       </c>
       <c r="B213" t="str">
-        <v>MARCH 11, 2020</v>
+        <v>MARCH 20, 2020</v>
       </c>
       <c r="C213" t="str">
-        <v>https://rategain.com/blog/how-to-capture-rate-integrity-issues-in-the-most-simplified-way/</v>
+        <v>https://rategain.com/blog/have-we-braced-ourselves/</v>
       </c>
       <c r="D213" t="str">
-        <v xml:space="preserve"> 10</v>
+        <v xml:space="preserve"> 12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Top 3 Rate Disparity Cases Acceptable to a Revenue Manager</v>
+        <v>How to Capture Rate Integrity Issues in the Most Simplified Way</v>
       </c>
       <c r="B214" t="str">
-        <v>MARCH 4, 2020</v>
+        <v>MARCH 11, 2020</v>
       </c>
       <c r="C214" t="str">
-        <v>https://rategain.com/blog/top-3-rate-disparity-cases-acceptable-to-a-revenue-manager/</v>
+        <v>https://rategain.com/blog/how-to-capture-rate-integrity-issues-in-the-most-simplified-way/</v>
       </c>
       <c r="D214" t="str">
-        <v xml:space="preserve"> 13</v>
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Rate Integrity: A Brand New Way of Increasing Direct Bookings</v>
+        <v>Top 3 Rate Disparity Cases Acceptable to a Revenue Manager</v>
       </c>
       <c r="B215" t="str">
-        <v>FEBRUARY 27, 2020</v>
+        <v>MARCH 4, 2020</v>
       </c>
       <c r="C215" t="str">
-        <v>https://rategain.com/blog/rate-integrity-a-brand-new-way-of-increasing-direct-bookings/</v>
+        <v>https://rategain.com/blog/top-3-rate-disparity-cases-acceptable-to-a-revenue-manager/</v>
       </c>
       <c r="D215" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 13</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Why Choose Rate Intelligence Over Rate Shopping?</v>
+        <v>Rate Integrity: A Brand New Way of Increasing Direct Bookings</v>
       </c>
       <c r="B216" t="str">
-        <v>FEBRUARY 19, 2020</v>
+        <v>FEBRUARY 27, 2020</v>
       </c>
       <c r="C216" t="str">
-        <v>https://rategain.com/blog/why-choose-rate-intelligence-over-rate-shopping/</v>
+        <v>https://rategain.com/blog/rate-integrity-a-brand-new-way-of-increasing-direct-bookings/</v>
       </c>
       <c r="D216" t="str">
-        <v xml:space="preserve"> 11</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Why a Rate Intelligence Experience Should Have the Best Art &amp; Science Behind it</v>
+        <v>Why Choose Rate Intelligence Over Rate Shopping?</v>
       </c>
       <c r="B217" t="str">
-        <v>FEBRUARY 5, 2020</v>
+        <v>FEBRUARY 19, 2020</v>
       </c>
       <c r="C217" t="str">
-        <v>https://rategain.com/blog/why-a-rate-intelligence-experience-should-have-the-best-art-science-behind-it/</v>
+        <v>https://rategain.com/blog/why-choose-rate-intelligence-over-rate-shopping/</v>
       </c>
       <c r="D217" t="str">
         <v xml:space="preserve"> 11</v>
@@ -3442,97 +3442,97 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Our Point of View on the Modern Age Distribution Ecosystem</v>
+        <v>Why a Rate Intelligence Experience Should Have the Best Art &amp; Science Behind it</v>
       </c>
       <c r="B218" t="str">
-        <v>JANUARY 31, 2020</v>
+        <v>FEBRUARY 5, 2020</v>
       </c>
       <c r="C218" t="str">
-        <v>https://rategain.com/blog/our-point-of-view-on-the-modern-age-distribution-ecosystem/</v>
+        <v>https://rategain.com/blog/why-a-rate-intelligence-experience-should-have-the-best-art-science-behind-it/</v>
       </c>
       <c r="D218" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Are You Leading A Future-Ready HR?</v>
+        <v>Our Point of View on the Modern Age Distribution Ecosystem</v>
       </c>
       <c r="B219" t="str">
-        <v>JANUARY 29, 2020</v>
+        <v>JANUARY 31, 2020</v>
       </c>
       <c r="C219" t="str">
-        <v>https://rategain.com/blog/are-you-leading-a-future-ready-hr/</v>
+        <v>https://rategain.com/blog/our-point-of-view-on-the-modern-age-distribution-ecosystem/</v>
       </c>
       <c r="D219" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>5 Ways to Ace Hospitality Marketing in 2020</v>
+        <v>Are You Leading A Future-Ready HR?</v>
       </c>
       <c r="B220" t="str">
-        <v>JANUARY 20, 2020</v>
+        <v>JANUARY 29, 2020</v>
       </c>
       <c r="C220" t="str">
-        <v>https://rategain.com/blog/5-ways-to-ace-hospitality-marketing-in-2020/</v>
+        <v>https://rategain.com/blog/are-you-leading-a-future-ready-hr/</v>
       </c>
       <c r="D220" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Why UX is Instrumental for Revenue Management</v>
+        <v>5 Ways to Ace Hospitality Marketing in 2020</v>
       </c>
       <c r="B221" t="str">
-        <v>JANUARY 14, 2020</v>
+        <v>JANUARY 20, 2020</v>
       </c>
       <c r="C221" t="str">
-        <v>https://rategain.com/blog/why-ux-is-instrumental-for-revenue-management/</v>
+        <v>https://rategain.com/blog/5-ways-to-ace-hospitality-marketing-in-2020/</v>
       </c>
       <c r="D221" t="str">
-        <v xml:space="preserve"> 16</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Visualizing Data Like a Pro: The Key to Unlock the Data Gold Mine</v>
+        <v>Why UX is Instrumental for Revenue Management</v>
       </c>
       <c r="B222" t="str">
-        <v>DECEMBER 17, 2019</v>
+        <v>JANUARY 14, 2020</v>
       </c>
       <c r="C222" t="str">
-        <v>https://rategain.com/blog/visualizing-data-like-a-pro-the-key-to-unlock-the-data-gold-mine/</v>
+        <v>https://rategain.com/blog/why-ux-is-instrumental-for-revenue-management/</v>
       </c>
       <c r="D222" t="str">
-        <v xml:space="preserve"> 13</v>
+        <v xml:space="preserve"> 16</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Smart Shopping for Data: Driving Analytics Excellence in the Airlines Industry</v>
+        <v>Visualizing Data Like a Pro: The Key to Unlock the Data Gold Mine</v>
       </c>
       <c r="B223" t="str">
-        <v>DECEMBER 4, 2019</v>
+        <v>DECEMBER 17, 2019</v>
       </c>
       <c r="C223" t="str">
-        <v>https://rategain.com/blog/smart-shopping-for-data-driving-analytics-excellence-in-the-airlines-industry/</v>
+        <v>https://rategain.com/blog/visualizing-data-like-a-pro-the-key-to-unlock-the-data-gold-mine/</v>
       </c>
       <c r="D223" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 13</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Mr. Hotelier, Four Signs It is Time to Change your Distribution Partner</v>
+        <v>Smart Shopping for Data: Driving Analytics Excellence in the Airlines Industry</v>
       </c>
       <c r="B224" t="str">
-        <v>NOVEMBER 29, 2019</v>
+        <v>DECEMBER 4, 2019</v>
       </c>
       <c r="C224" t="str">
-        <v>https://rategain.com/blog/mr-hotelier-four-signs-it-is-time-to-change-your-distribution-partner/</v>
+        <v>https://rategain.com/blog/smart-shopping-for-data-driving-analytics-excellence-in-the-airlines-industry/</v>
       </c>
       <c r="D224" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3540,83 +3540,83 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Adopting SCRUM in the Organization’s People Processes</v>
+        <v>Mr. Hotelier, Four Signs It is Time to Change your Distribution Partner</v>
       </c>
       <c r="B225" t="str">
-        <v>NOVEMBER 22, 2019</v>
+        <v>NOVEMBER 29, 2019</v>
       </c>
       <c r="C225" t="str">
-        <v>https://rategain.com/blog/adopting-scrum-organization-people-processes/</v>
+        <v>https://rategain.com/blog/mr-hotelier-four-signs-it-is-time-to-change-your-distribution-partner/</v>
       </c>
       <c r="D225" t="str">
-        <v xml:space="preserve"> 3</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>How to Deliver Value In The Era Of Hospitality Industry Consolidation?</v>
+        <v>Adopting SCRUM in the Organization’s People Processes</v>
       </c>
       <c r="B226" t="str">
-        <v>NOVEMBER 19, 2019</v>
+        <v>NOVEMBER 22, 2019</v>
       </c>
       <c r="C226" t="str">
-        <v>https://rategain.com/blog/how-to-deliver-value-in-the-era-of-hospitality-industry-consolidation/</v>
+        <v>https://rategain.com/blog/adopting-scrum-organization-people-processes/</v>
       </c>
       <c r="D226" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>What will define Long Term Success for Airlines</v>
+        <v>How to Deliver Value In The Era Of Hospitality Industry Consolidation?</v>
       </c>
       <c r="B227" t="str">
-        <v>NOVEMBER 11, 2019</v>
+        <v>NOVEMBER 19, 2019</v>
       </c>
       <c r="C227" t="str">
-        <v>https://rategain.com/blog/what-will-define-long-term-success-for-airlines/</v>
+        <v>https://rategain.com/blog/how-to-deliver-value-in-the-era-of-hospitality-industry-consolidation/</v>
       </c>
       <c r="D227" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 4</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Challenges for Airline Revenue Managers Beyond 2020</v>
+        <v>What will define Long Term Success for Airlines</v>
       </c>
       <c r="B228" t="str">
-        <v>OCTOBER 23, 2019</v>
+        <v>NOVEMBER 11, 2019</v>
       </c>
       <c r="C228" t="str">
-        <v>https://rategain.com/blog/challenges-for-airline-revenue-managers-beyond-2020/</v>
+        <v>https://rategain.com/blog/what-will-define-long-term-success-for-airlines/</v>
       </c>
       <c r="D228" t="str">
-        <v xml:space="preserve"> 9</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Navigating Constant Consolidation</v>
+        <v>Challenges for Airline Revenue Managers Beyond 2020</v>
       </c>
       <c r="B229" t="str">
-        <v>OCTOBER 21, 2019</v>
+        <v>OCTOBER 23, 2019</v>
       </c>
       <c r="C229" t="str">
-        <v>https://rategain.com/blog/navigating-constant-consolidation/</v>
+        <v>https://rategain.com/blog/challenges-for-airline-revenue-managers-beyond-2020/</v>
       </c>
       <c r="D229" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Our point of view on Distribution Journey</v>
+        <v>Navigating Constant Consolidation</v>
       </c>
       <c r="B230" t="str">
-        <v>OCTOBER 17, 2019</v>
+        <v>OCTOBER 21, 2019</v>
       </c>
       <c r="C230" t="str">
-        <v>https://rategain.com/blog/our-point-of-view-on-distribution-journey/</v>
+        <v>https://rategain.com/blog/navigating-constant-consolidation/</v>
       </c>
       <c r="D230" t="str">
         <v xml:space="preserve"> 8</v>
@@ -3624,69 +3624,69 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Putting User Experience at the center of a new problem</v>
+        <v>Our point of view on Distribution Journey</v>
       </c>
       <c r="B231" t="str">
-        <v>OCTOBER 15, 2019</v>
+        <v>OCTOBER 17, 2019</v>
       </c>
       <c r="C231" t="str">
-        <v>https://rategain.com/blog/putting-user-experience-at-the-center-of-a-new-problem/</v>
+        <v>https://rategain.com/blog/our-point-of-view-on-distribution-journey/</v>
       </c>
       <c r="D231" t="str">
-        <v xml:space="preserve"> 10</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>The Last Distribution Challenge</v>
+        <v>Putting User Experience at the center of a new problem</v>
       </c>
       <c r="B232" t="str">
         <v>OCTOBER 15, 2019</v>
       </c>
       <c r="C232" t="str">
-        <v>https://rategain.com/blog/re-configuring-the-distribution-models-for-the-next-gen-distribution-ecosystem/</v>
+        <v>https://rategain.com/blog/putting-user-experience-at-the-center-of-a-new-problem/</v>
       </c>
       <c r="D232" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 10</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Can Car Rental analytics help make better investment decisions?</v>
+        <v>The Last Distribution Challenge</v>
       </c>
       <c r="B233" t="str">
-        <v>OCTOBER 4, 2019</v>
+        <v>OCTOBER 15, 2019</v>
       </c>
       <c r="C233" t="str">
-        <v>https://rategain.com/blog/can-car-rental-analytics-help-make-better-investment-decisions/</v>
+        <v>https://rategain.com/blog/re-configuring-the-distribution-models-for-the-next-gen-distribution-ecosystem/</v>
       </c>
       <c r="D233" t="str">
-        <v xml:space="preserve"> 8</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Top 3 considerations for blueprinting your content transformation</v>
+        <v>Can Car Rental analytics help make better investment decisions?</v>
       </c>
       <c r="B234" t="str">
-        <v>SEPTEMBER 21, 2019</v>
+        <v>OCTOBER 4, 2019</v>
       </c>
       <c r="C234" t="str">
-        <v>https://rategain.com/blog/top-three-considerations-for-blueprinting-your-content-transformation/</v>
+        <v>https://rategain.com/blog/can-car-rental-analytics-help-make-better-investment-decisions/</v>
       </c>
       <c r="D234" t="str">
-        <v xml:space="preserve"> 7</v>
+        <v xml:space="preserve"> 8</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>The Path to A Shared Future: Can car rentals help in turning around the industry slowdown ?</v>
+        <v>Top 3 considerations for blueprinting your content transformation</v>
       </c>
       <c r="B235" t="str">
-        <v>SEPTEMBER 11, 2019</v>
+        <v>SEPTEMBER 21, 2019</v>
       </c>
       <c r="C235" t="str">
-        <v>https://rategain.com/blog/how-to-turn-around-car-industry-slowdown/</v>
+        <v>https://rategain.com/blog/top-three-considerations-for-blueprinting-your-content-transformation/</v>
       </c>
       <c r="D235" t="str">
         <v xml:space="preserve"> 7</v>
@@ -3694,55 +3694,55 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Delivering Duty of Care in the Age of Corporate Rogue Travel</v>
+        <v>The Path to A Shared Future: Can car rentals help in turning around the industry slowdown ?</v>
       </c>
       <c r="B236" t="str">
-        <v>AUGUST 21, 2019</v>
+        <v>SEPTEMBER 11, 2019</v>
       </c>
       <c r="C236" t="str">
-        <v>https://rategain.com/blog/delivering-duty-of-care-in-the-age-of-corporate-rogue-travel/</v>
+        <v>https://rategain.com/blog/how-to-turn-around-car-industry-slowdown/</v>
       </c>
       <c r="D236" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 7</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Who is winning the experience game in travel and hospitality?</v>
+        <v>Delivering Duty of Care in the Age of Corporate Rogue Travel</v>
       </c>
       <c r="B237" t="str">
-        <v>JULY 22, 2019</v>
+        <v>AUGUST 21, 2019</v>
       </c>
       <c r="C237" t="str">
-        <v>https://rategain.com/blog/who-is-winning-the-experience-game-in-travel-and-hospitality/</v>
+        <v>https://rategain.com/blog/delivering-duty-of-care-in-the-age-of-corporate-rogue-travel/</v>
       </c>
       <c r="D237" t="str">
-        <v xml:space="preserve"> 2</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Airlines: Soaring on Ancillary Revenue</v>
+        <v>Who is winning the experience game in travel and hospitality?</v>
       </c>
       <c r="B238" t="str">
-        <v>JULY 18, 2019</v>
+        <v>JULY 22, 2019</v>
       </c>
       <c r="C238" t="str">
-        <v>https://rategain.com/blog/airlines-soaring-on-ancillary-revenue/</v>
+        <v>https://rategain.com/blog/who-is-winning-the-experience-game-in-travel-and-hospitality/</v>
       </c>
       <c r="D238" t="str">
-        <v xml:space="preserve"> 5</v>
+        <v xml:space="preserve"> 2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Transaction Tracking and Analytics: Steering Car Rental</v>
+        <v>Airlines: Soaring on Ancillary Revenue</v>
       </c>
       <c r="B239" t="str">
-        <v>JUNE 24, 2019</v>
+        <v>JULY 18, 2019</v>
       </c>
       <c r="C239" t="str">
-        <v>https://rategain.com/blog/transaction-tracking-and-analytics-steering-car-rental/</v>
+        <v>https://rategain.com/blog/airlines-soaring-on-ancillary-revenue/</v>
       </c>
       <c r="D239" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Enhancing Car Rental Revenue Management with AI-driven Dynamic Pricing</v>
+        <v>Transaction Tracking and Analytics: Steering Car Rental</v>
       </c>
       <c r="B240" t="str">
         <v>JUNE 24, 2019</v>
       </c>
       <c r="C240" t="str">
-        <v>https://rategain.com/blog/enhancing-car-rental-revenue-management-with-ai-driven-dynamic-pricing/</v>
+        <v>https://rategain.com/blog/transaction-tracking-and-analytics-steering-car-rental/</v>
       </c>
       <c r="D240" t="str">
         <v xml:space="preserve"> 5</v>
@@ -3764,49 +3764,63 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Busting a billion-dollar digital myth for cruise lines!</v>
+        <v>Enhancing Car Rental Revenue Management with AI-driven Dynamic Pricing</v>
       </c>
       <c r="B241" t="str">
-        <v>FEBRUARY 8, 2019</v>
+        <v>JUNE 24, 2019</v>
       </c>
       <c r="C241" t="str">
-        <v>https://rategain.com/blog/busting-billion-dollar-digital-myth-cruise-lines/</v>
+        <v>https://rategain.com/blog/enhancing-car-rental-revenue-management-with-ai-driven-dynamic-pricing/</v>
       </c>
       <c r="D241" t="str">
-        <v xml:space="preserve"> 6</v>
+        <v xml:space="preserve"> 5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>The future of distribution strategy at your doorstep</v>
+        <v>Busting a billion-dollar digital myth for cruise lines!</v>
       </c>
       <c r="B242" t="str">
-        <v>SEPTEMBER 24, 2018</v>
+        <v>FEBRUARY 8, 2019</v>
       </c>
       <c r="C242" t="str">
-        <v>https://rategain.com/blog/future-distribution-strategy-doorstep/</v>
+        <v>https://rategain.com/blog/busting-billion-dollar-digital-myth-cruise-lines/</v>
       </c>
       <c r="D242" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
+        <v>The future of distribution strategy at your doorstep</v>
+      </c>
+      <c r="B243" t="str">
+        <v>SEPTEMBER 24, 2018</v>
+      </c>
+      <c r="C243" t="str">
+        <v>https://rategain.com/blog/future-distribution-strategy-doorstep/</v>
+      </c>
+      <c r="D243" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
         <v>‘A Thousand Words’: Why Great Visuals Speak Directly, Fluently and Effortlessly</v>
       </c>
-      <c r="B243" t="str">
+      <c r="B244" t="str">
         <v>AUGUST 27, 2018</v>
       </c>
-      <c r="C243" t="str">
+      <c r="C244" t="str">
         <v>https://rategain.com/blog/importance-picture-reviews-hotel-reputation/</v>
       </c>
-      <c r="D243" t="str">
+      <c r="D244" t="str">
         <v xml:space="preserve"> 4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D243"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D244"/>
   </ignoredErrors>
 </worksheet>
 </file>